--- a/Documents/Cord/Cord Documents/4010 ใบบันทึกสภาวะการผลิต.xlsx
+++ b/Documents/Cord/Cord Documents/4010 ใบบันทึกสภาวะการผลิต.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toraygroup01-my.sharepoint.com/personal/paiboon_mongkollert_e5_mail_toray/Documents/Budget Traeback Cord 2022/DCC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1279EFAD-E2BA-4AAC-9379-2F8ADD363ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{989D1860-6625-4BDA-B025-A8E75A585253}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="FM-CS-11(1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -557,8 +551,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -641,12 +635,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <name val="Aparajita"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="AngsanaUPC"/>
       <family val="1"/>
@@ -665,8 +653,57 @@
       <family val="1"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aparajita"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,6 +716,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="67">
     <border>
@@ -1494,35 +1537,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1538,30 +1557,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1577,48 +1572,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,46 +1599,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,37 +1620,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1732,27 +1635,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1798,22 +1683,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1846,7 +1716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1858,21 +1728,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,7 +1737,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1891,30 +1746,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1945,12 +1776,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1969,12 +1794,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1986,12 +1805,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2005,15 +1818,254 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2048,7 +2100,7 @@
         <xdr:cNvPr id="2" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D8448A-9077-4633-AEF8-0BB86CCFFE59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39D8448A-9077-4633-AEF8-0BB86CCFFE59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2127,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2130,7 +2182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2182,7 +2234,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2376,2346 +2428,2385 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D8DB8F-40E2-4C76-B0AD-61FC5A50BB14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="23" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="23.4"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="1" customWidth="1"/>
     <col min="10" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.69921875" style="1" customWidth="1"/>
-    <col min="16" max="18" width="7.69921875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.3984375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="18" width="7.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
+    <col min="20" max="21" width="7.125" style="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.09765625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.125" style="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="1" customWidth="1"/>
-    <col min="25" max="256" width="9.09765625" style="1"/>
-    <col min="257" max="257" width="10.09765625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="9.69921875" style="1" customWidth="1"/>
+    <col min="25" max="256" width="9.125" style="1"/>
+    <col min="257" max="257" width="10.125" style="1" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="1" customWidth="1"/>
     <col min="259" max="259" width="7" style="1" customWidth="1"/>
-    <col min="260" max="260" width="7.3984375" style="1" customWidth="1"/>
-    <col min="261" max="261" width="7.09765625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="7.375" style="1" customWidth="1"/>
+    <col min="261" max="261" width="7.125" style="1" customWidth="1"/>
     <col min="262" max="262" width="8" style="1" customWidth="1"/>
-    <col min="263" max="263" width="8.59765625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="8.625" style="1" customWidth="1"/>
     <col min="264" max="264" width="8" style="1" customWidth="1"/>
-    <col min="265" max="265" width="8.69921875" style="1" customWidth="1"/>
+    <col min="265" max="265" width="8.75" style="1" customWidth="1"/>
     <col min="266" max="268" width="8" style="1" customWidth="1"/>
-    <col min="269" max="271" width="9.69921875" style="1" customWidth="1"/>
-    <col min="272" max="274" width="7.69921875" style="1" customWidth="1"/>
-    <col min="275" max="275" width="11.3984375" style="1" customWidth="1"/>
-    <col min="276" max="277" width="7.09765625" style="1" customWidth="1"/>
+    <col min="269" max="271" width="9.75" style="1" customWidth="1"/>
+    <col min="272" max="274" width="7.75" style="1" customWidth="1"/>
+    <col min="275" max="275" width="11.375" style="1" customWidth="1"/>
+    <col min="276" max="277" width="7.125" style="1" customWidth="1"/>
     <col min="278" max="278" width="6" style="1" customWidth="1"/>
-    <col min="279" max="279" width="8.09765625" style="1" customWidth="1"/>
+    <col min="279" max="279" width="8.125" style="1" customWidth="1"/>
     <col min="280" max="280" width="9" style="1" customWidth="1"/>
-    <col min="281" max="512" width="9.09765625" style="1"/>
-    <col min="513" max="513" width="10.09765625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="9.69921875" style="1" customWidth="1"/>
+    <col min="281" max="512" width="9.125" style="1"/>
+    <col min="513" max="513" width="10.125" style="1" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="1" customWidth="1"/>
     <col min="515" max="515" width="7" style="1" customWidth="1"/>
-    <col min="516" max="516" width="7.3984375" style="1" customWidth="1"/>
-    <col min="517" max="517" width="7.09765625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="7.375" style="1" customWidth="1"/>
+    <col min="517" max="517" width="7.125" style="1" customWidth="1"/>
     <col min="518" max="518" width="8" style="1" customWidth="1"/>
-    <col min="519" max="519" width="8.59765625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="8.625" style="1" customWidth="1"/>
     <col min="520" max="520" width="8" style="1" customWidth="1"/>
-    <col min="521" max="521" width="8.69921875" style="1" customWidth="1"/>
+    <col min="521" max="521" width="8.75" style="1" customWidth="1"/>
     <col min="522" max="524" width="8" style="1" customWidth="1"/>
-    <col min="525" max="527" width="9.69921875" style="1" customWidth="1"/>
-    <col min="528" max="530" width="7.69921875" style="1" customWidth="1"/>
-    <col min="531" max="531" width="11.3984375" style="1" customWidth="1"/>
-    <col min="532" max="533" width="7.09765625" style="1" customWidth="1"/>
+    <col min="525" max="527" width="9.75" style="1" customWidth="1"/>
+    <col min="528" max="530" width="7.75" style="1" customWidth="1"/>
+    <col min="531" max="531" width="11.375" style="1" customWidth="1"/>
+    <col min="532" max="533" width="7.125" style="1" customWidth="1"/>
     <col min="534" max="534" width="6" style="1" customWidth="1"/>
-    <col min="535" max="535" width="8.09765625" style="1" customWidth="1"/>
+    <col min="535" max="535" width="8.125" style="1" customWidth="1"/>
     <col min="536" max="536" width="9" style="1" customWidth="1"/>
-    <col min="537" max="768" width="9.09765625" style="1"/>
-    <col min="769" max="769" width="10.09765625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="9.69921875" style="1" customWidth="1"/>
+    <col min="537" max="768" width="9.125" style="1"/>
+    <col min="769" max="769" width="10.125" style="1" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="1" customWidth="1"/>
     <col min="771" max="771" width="7" style="1" customWidth="1"/>
-    <col min="772" max="772" width="7.3984375" style="1" customWidth="1"/>
-    <col min="773" max="773" width="7.09765625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="7.375" style="1" customWidth="1"/>
+    <col min="773" max="773" width="7.125" style="1" customWidth="1"/>
     <col min="774" max="774" width="8" style="1" customWidth="1"/>
-    <col min="775" max="775" width="8.59765625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="8.625" style="1" customWidth="1"/>
     <col min="776" max="776" width="8" style="1" customWidth="1"/>
-    <col min="777" max="777" width="8.69921875" style="1" customWidth="1"/>
+    <col min="777" max="777" width="8.75" style="1" customWidth="1"/>
     <col min="778" max="780" width="8" style="1" customWidth="1"/>
-    <col min="781" max="783" width="9.69921875" style="1" customWidth="1"/>
-    <col min="784" max="786" width="7.69921875" style="1" customWidth="1"/>
-    <col min="787" max="787" width="11.3984375" style="1" customWidth="1"/>
-    <col min="788" max="789" width="7.09765625" style="1" customWidth="1"/>
+    <col min="781" max="783" width="9.75" style="1" customWidth="1"/>
+    <col min="784" max="786" width="7.75" style="1" customWidth="1"/>
+    <col min="787" max="787" width="11.375" style="1" customWidth="1"/>
+    <col min="788" max="789" width="7.125" style="1" customWidth="1"/>
     <col min="790" max="790" width="6" style="1" customWidth="1"/>
-    <col min="791" max="791" width="8.09765625" style="1" customWidth="1"/>
+    <col min="791" max="791" width="8.125" style="1" customWidth="1"/>
     <col min="792" max="792" width="9" style="1" customWidth="1"/>
-    <col min="793" max="1024" width="9.09765625" style="1"/>
-    <col min="1025" max="1025" width="10.09765625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="9.69921875" style="1" customWidth="1"/>
+    <col min="793" max="1024" width="9.125" style="1"/>
+    <col min="1025" max="1025" width="10.125" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="1" customWidth="1"/>
     <col min="1027" max="1027" width="7" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="7.3984375" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="7.375" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="7.125" style="1" customWidth="1"/>
     <col min="1030" max="1030" width="8" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="8.59765625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.625" style="1" customWidth="1"/>
     <col min="1032" max="1032" width="8" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="8.69921875" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="8.75" style="1" customWidth="1"/>
     <col min="1034" max="1036" width="8" style="1" customWidth="1"/>
-    <col min="1037" max="1039" width="9.69921875" style="1" customWidth="1"/>
-    <col min="1040" max="1042" width="7.69921875" style="1" customWidth="1"/>
-    <col min="1043" max="1043" width="11.3984375" style="1" customWidth="1"/>
-    <col min="1044" max="1045" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1037" max="1039" width="9.75" style="1" customWidth="1"/>
+    <col min="1040" max="1042" width="7.75" style="1" customWidth="1"/>
+    <col min="1043" max="1043" width="11.375" style="1" customWidth="1"/>
+    <col min="1044" max="1045" width="7.125" style="1" customWidth="1"/>
     <col min="1046" max="1046" width="6" style="1" customWidth="1"/>
-    <col min="1047" max="1047" width="8.09765625" style="1" customWidth="1"/>
+    <col min="1047" max="1047" width="8.125" style="1" customWidth="1"/>
     <col min="1048" max="1048" width="9" style="1" customWidth="1"/>
-    <col min="1049" max="1280" width="9.09765625" style="1"/>
-    <col min="1281" max="1281" width="10.09765625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1049" max="1280" width="9.125" style="1"/>
+    <col min="1281" max="1281" width="10.125" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="1" customWidth="1"/>
     <col min="1283" max="1283" width="7" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="7.3984375" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="7.375" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="7.125" style="1" customWidth="1"/>
     <col min="1286" max="1286" width="8" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="8.59765625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.625" style="1" customWidth="1"/>
     <col min="1288" max="1288" width="8" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="8.69921875" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="8.75" style="1" customWidth="1"/>
     <col min="1290" max="1292" width="8" style="1" customWidth="1"/>
-    <col min="1293" max="1295" width="9.69921875" style="1" customWidth="1"/>
-    <col min="1296" max="1298" width="7.69921875" style="1" customWidth="1"/>
-    <col min="1299" max="1299" width="11.3984375" style="1" customWidth="1"/>
-    <col min="1300" max="1301" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1293" max="1295" width="9.75" style="1" customWidth="1"/>
+    <col min="1296" max="1298" width="7.75" style="1" customWidth="1"/>
+    <col min="1299" max="1299" width="11.375" style="1" customWidth="1"/>
+    <col min="1300" max="1301" width="7.125" style="1" customWidth="1"/>
     <col min="1302" max="1302" width="6" style="1" customWidth="1"/>
-    <col min="1303" max="1303" width="8.09765625" style="1" customWidth="1"/>
+    <col min="1303" max="1303" width="8.125" style="1" customWidth="1"/>
     <col min="1304" max="1304" width="9" style="1" customWidth="1"/>
-    <col min="1305" max="1536" width="9.09765625" style="1"/>
-    <col min="1537" max="1537" width="10.09765625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1305" max="1536" width="9.125" style="1"/>
+    <col min="1537" max="1537" width="10.125" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="1" customWidth="1"/>
     <col min="1539" max="1539" width="7" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="7.3984375" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="7.375" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="7.125" style="1" customWidth="1"/>
     <col min="1542" max="1542" width="8" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="8.59765625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.625" style="1" customWidth="1"/>
     <col min="1544" max="1544" width="8" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="8.69921875" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="8.75" style="1" customWidth="1"/>
     <col min="1546" max="1548" width="8" style="1" customWidth="1"/>
-    <col min="1549" max="1551" width="9.69921875" style="1" customWidth="1"/>
-    <col min="1552" max="1554" width="7.69921875" style="1" customWidth="1"/>
-    <col min="1555" max="1555" width="11.3984375" style="1" customWidth="1"/>
-    <col min="1556" max="1557" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1549" max="1551" width="9.75" style="1" customWidth="1"/>
+    <col min="1552" max="1554" width="7.75" style="1" customWidth="1"/>
+    <col min="1555" max="1555" width="11.375" style="1" customWidth="1"/>
+    <col min="1556" max="1557" width="7.125" style="1" customWidth="1"/>
     <col min="1558" max="1558" width="6" style="1" customWidth="1"/>
-    <col min="1559" max="1559" width="8.09765625" style="1" customWidth="1"/>
+    <col min="1559" max="1559" width="8.125" style="1" customWidth="1"/>
     <col min="1560" max="1560" width="9" style="1" customWidth="1"/>
-    <col min="1561" max="1792" width="9.09765625" style="1"/>
-    <col min="1793" max="1793" width="10.09765625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1561" max="1792" width="9.125" style="1"/>
+    <col min="1793" max="1793" width="10.125" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="1" customWidth="1"/>
     <col min="1795" max="1795" width="7" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="7.3984375" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="7.375" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="7.125" style="1" customWidth="1"/>
     <col min="1798" max="1798" width="8" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="8.59765625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.625" style="1" customWidth="1"/>
     <col min="1800" max="1800" width="8" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="8.69921875" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="8.75" style="1" customWidth="1"/>
     <col min="1802" max="1804" width="8" style="1" customWidth="1"/>
-    <col min="1805" max="1807" width="9.69921875" style="1" customWidth="1"/>
-    <col min="1808" max="1810" width="7.69921875" style="1" customWidth="1"/>
-    <col min="1811" max="1811" width="11.3984375" style="1" customWidth="1"/>
-    <col min="1812" max="1813" width="7.09765625" style="1" customWidth="1"/>
+    <col min="1805" max="1807" width="9.75" style="1" customWidth="1"/>
+    <col min="1808" max="1810" width="7.75" style="1" customWidth="1"/>
+    <col min="1811" max="1811" width="11.375" style="1" customWidth="1"/>
+    <col min="1812" max="1813" width="7.125" style="1" customWidth="1"/>
     <col min="1814" max="1814" width="6" style="1" customWidth="1"/>
-    <col min="1815" max="1815" width="8.09765625" style="1" customWidth="1"/>
+    <col min="1815" max="1815" width="8.125" style="1" customWidth="1"/>
     <col min="1816" max="1816" width="9" style="1" customWidth="1"/>
-    <col min="1817" max="2048" width="9.09765625" style="1"/>
-    <col min="2049" max="2049" width="10.09765625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1817" max="2048" width="9.125" style="1"/>
+    <col min="2049" max="2049" width="10.125" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="1" customWidth="1"/>
     <col min="2051" max="2051" width="7" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="7.3984375" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="7.09765625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="7.375" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="7.125" style="1" customWidth="1"/>
     <col min="2054" max="2054" width="8" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="8.59765625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.625" style="1" customWidth="1"/>
     <col min="2056" max="2056" width="8" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="8.69921875" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="8.75" style="1" customWidth="1"/>
     <col min="2058" max="2060" width="8" style="1" customWidth="1"/>
-    <col min="2061" max="2063" width="9.69921875" style="1" customWidth="1"/>
-    <col min="2064" max="2066" width="7.69921875" style="1" customWidth="1"/>
-    <col min="2067" max="2067" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2068" max="2069" width="7.09765625" style="1" customWidth="1"/>
+    <col min="2061" max="2063" width="9.75" style="1" customWidth="1"/>
+    <col min="2064" max="2066" width="7.75" style="1" customWidth="1"/>
+    <col min="2067" max="2067" width="11.375" style="1" customWidth="1"/>
+    <col min="2068" max="2069" width="7.125" style="1" customWidth="1"/>
     <col min="2070" max="2070" width="6" style="1" customWidth="1"/>
-    <col min="2071" max="2071" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2071" max="2071" width="8.125" style="1" customWidth="1"/>
     <col min="2072" max="2072" width="9" style="1" customWidth="1"/>
-    <col min="2073" max="2304" width="9.09765625" style="1"/>
-    <col min="2305" max="2305" width="10.09765625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="9.69921875" style="1" customWidth="1"/>
+    <col min="2073" max="2304" width="9.125" style="1"/>
+    <col min="2305" max="2305" width="10.125" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="1" customWidth="1"/>
     <col min="2307" max="2307" width="7" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="7.3984375" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="7.09765625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="7.375" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="7.125" style="1" customWidth="1"/>
     <col min="2310" max="2310" width="8" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="8.59765625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.625" style="1" customWidth="1"/>
     <col min="2312" max="2312" width="8" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="8.69921875" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="8.75" style="1" customWidth="1"/>
     <col min="2314" max="2316" width="8" style="1" customWidth="1"/>
-    <col min="2317" max="2319" width="9.69921875" style="1" customWidth="1"/>
-    <col min="2320" max="2322" width="7.69921875" style="1" customWidth="1"/>
-    <col min="2323" max="2323" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2324" max="2325" width="7.09765625" style="1" customWidth="1"/>
+    <col min="2317" max="2319" width="9.75" style="1" customWidth="1"/>
+    <col min="2320" max="2322" width="7.75" style="1" customWidth="1"/>
+    <col min="2323" max="2323" width="11.375" style="1" customWidth="1"/>
+    <col min="2324" max="2325" width="7.125" style="1" customWidth="1"/>
     <col min="2326" max="2326" width="6" style="1" customWidth="1"/>
-    <col min="2327" max="2327" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2327" max="2327" width="8.125" style="1" customWidth="1"/>
     <col min="2328" max="2328" width="9" style="1" customWidth="1"/>
-    <col min="2329" max="2560" width="9.09765625" style="1"/>
-    <col min="2561" max="2561" width="10.09765625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="9.69921875" style="1" customWidth="1"/>
+    <col min="2329" max="2560" width="9.125" style="1"/>
+    <col min="2561" max="2561" width="10.125" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="1" customWidth="1"/>
     <col min="2563" max="2563" width="7" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="7.3984375" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="7.09765625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="7.375" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="7.125" style="1" customWidth="1"/>
     <col min="2566" max="2566" width="8" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="8.59765625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.625" style="1" customWidth="1"/>
     <col min="2568" max="2568" width="8" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="8.69921875" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="8.75" style="1" customWidth="1"/>
     <col min="2570" max="2572" width="8" style="1" customWidth="1"/>
-    <col min="2573" max="2575" width="9.69921875" style="1" customWidth="1"/>
-    <col min="2576" max="2578" width="7.69921875" style="1" customWidth="1"/>
-    <col min="2579" max="2579" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2580" max="2581" width="7.09765625" style="1" customWidth="1"/>
+    <col min="2573" max="2575" width="9.75" style="1" customWidth="1"/>
+    <col min="2576" max="2578" width="7.75" style="1" customWidth="1"/>
+    <col min="2579" max="2579" width="11.375" style="1" customWidth="1"/>
+    <col min="2580" max="2581" width="7.125" style="1" customWidth="1"/>
     <col min="2582" max="2582" width="6" style="1" customWidth="1"/>
-    <col min="2583" max="2583" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2583" max="2583" width="8.125" style="1" customWidth="1"/>
     <col min="2584" max="2584" width="9" style="1" customWidth="1"/>
-    <col min="2585" max="2816" width="9.09765625" style="1"/>
-    <col min="2817" max="2817" width="10.09765625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="9.69921875" style="1" customWidth="1"/>
+    <col min="2585" max="2816" width="9.125" style="1"/>
+    <col min="2817" max="2817" width="10.125" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="1" customWidth="1"/>
     <col min="2819" max="2819" width="7" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="7.3984375" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="7.09765625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="7.375" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="7.125" style="1" customWidth="1"/>
     <col min="2822" max="2822" width="8" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="8.59765625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.625" style="1" customWidth="1"/>
     <col min="2824" max="2824" width="8" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="8.69921875" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="8.75" style="1" customWidth="1"/>
     <col min="2826" max="2828" width="8" style="1" customWidth="1"/>
-    <col min="2829" max="2831" width="9.69921875" style="1" customWidth="1"/>
-    <col min="2832" max="2834" width="7.69921875" style="1" customWidth="1"/>
-    <col min="2835" max="2835" width="11.3984375" style="1" customWidth="1"/>
-    <col min="2836" max="2837" width="7.09765625" style="1" customWidth="1"/>
+    <col min="2829" max="2831" width="9.75" style="1" customWidth="1"/>
+    <col min="2832" max="2834" width="7.75" style="1" customWidth="1"/>
+    <col min="2835" max="2835" width="11.375" style="1" customWidth="1"/>
+    <col min="2836" max="2837" width="7.125" style="1" customWidth="1"/>
     <col min="2838" max="2838" width="6" style="1" customWidth="1"/>
-    <col min="2839" max="2839" width="8.09765625" style="1" customWidth="1"/>
+    <col min="2839" max="2839" width="8.125" style="1" customWidth="1"/>
     <col min="2840" max="2840" width="9" style="1" customWidth="1"/>
-    <col min="2841" max="3072" width="9.09765625" style="1"/>
-    <col min="3073" max="3073" width="10.09765625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="9.69921875" style="1" customWidth="1"/>
+    <col min="2841" max="3072" width="9.125" style="1"/>
+    <col min="3073" max="3073" width="10.125" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="1" customWidth="1"/>
     <col min="3075" max="3075" width="7" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="7.3984375" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="7.09765625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="7.375" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="7.125" style="1" customWidth="1"/>
     <col min="3078" max="3078" width="8" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="8.59765625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.625" style="1" customWidth="1"/>
     <col min="3080" max="3080" width="8" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="8.69921875" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="8.75" style="1" customWidth="1"/>
     <col min="3082" max="3084" width="8" style="1" customWidth="1"/>
-    <col min="3085" max="3087" width="9.69921875" style="1" customWidth="1"/>
-    <col min="3088" max="3090" width="7.69921875" style="1" customWidth="1"/>
-    <col min="3091" max="3091" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3092" max="3093" width="7.09765625" style="1" customWidth="1"/>
+    <col min="3085" max="3087" width="9.75" style="1" customWidth="1"/>
+    <col min="3088" max="3090" width="7.75" style="1" customWidth="1"/>
+    <col min="3091" max="3091" width="11.375" style="1" customWidth="1"/>
+    <col min="3092" max="3093" width="7.125" style="1" customWidth="1"/>
     <col min="3094" max="3094" width="6" style="1" customWidth="1"/>
-    <col min="3095" max="3095" width="8.09765625" style="1" customWidth="1"/>
+    <col min="3095" max="3095" width="8.125" style="1" customWidth="1"/>
     <col min="3096" max="3096" width="9" style="1" customWidth="1"/>
-    <col min="3097" max="3328" width="9.09765625" style="1"/>
-    <col min="3329" max="3329" width="10.09765625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3097" max="3328" width="9.125" style="1"/>
+    <col min="3329" max="3329" width="10.125" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="1" customWidth="1"/>
     <col min="3331" max="3331" width="7" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="7.3984375" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="7.09765625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="7.375" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="7.125" style="1" customWidth="1"/>
     <col min="3334" max="3334" width="8" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="8.59765625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.625" style="1" customWidth="1"/>
     <col min="3336" max="3336" width="8" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="8.69921875" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="8.75" style="1" customWidth="1"/>
     <col min="3338" max="3340" width="8" style="1" customWidth="1"/>
-    <col min="3341" max="3343" width="9.69921875" style="1" customWidth="1"/>
-    <col min="3344" max="3346" width="7.69921875" style="1" customWidth="1"/>
-    <col min="3347" max="3347" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3348" max="3349" width="7.09765625" style="1" customWidth="1"/>
+    <col min="3341" max="3343" width="9.75" style="1" customWidth="1"/>
+    <col min="3344" max="3346" width="7.75" style="1" customWidth="1"/>
+    <col min="3347" max="3347" width="11.375" style="1" customWidth="1"/>
+    <col min="3348" max="3349" width="7.125" style="1" customWidth="1"/>
     <col min="3350" max="3350" width="6" style="1" customWidth="1"/>
-    <col min="3351" max="3351" width="8.09765625" style="1" customWidth="1"/>
+    <col min="3351" max="3351" width="8.125" style="1" customWidth="1"/>
     <col min="3352" max="3352" width="9" style="1" customWidth="1"/>
-    <col min="3353" max="3584" width="9.09765625" style="1"/>
-    <col min="3585" max="3585" width="10.09765625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3353" max="3584" width="9.125" style="1"/>
+    <col min="3585" max="3585" width="10.125" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="1" customWidth="1"/>
     <col min="3587" max="3587" width="7" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="7.3984375" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="7.09765625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="7.375" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="7.125" style="1" customWidth="1"/>
     <col min="3590" max="3590" width="8" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="8.59765625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.625" style="1" customWidth="1"/>
     <col min="3592" max="3592" width="8" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="8.69921875" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="8.75" style="1" customWidth="1"/>
     <col min="3594" max="3596" width="8" style="1" customWidth="1"/>
-    <col min="3597" max="3599" width="9.69921875" style="1" customWidth="1"/>
-    <col min="3600" max="3602" width="7.69921875" style="1" customWidth="1"/>
-    <col min="3603" max="3603" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3604" max="3605" width="7.09765625" style="1" customWidth="1"/>
+    <col min="3597" max="3599" width="9.75" style="1" customWidth="1"/>
+    <col min="3600" max="3602" width="7.75" style="1" customWidth="1"/>
+    <col min="3603" max="3603" width="11.375" style="1" customWidth="1"/>
+    <col min="3604" max="3605" width="7.125" style="1" customWidth="1"/>
     <col min="3606" max="3606" width="6" style="1" customWidth="1"/>
-    <col min="3607" max="3607" width="8.09765625" style="1" customWidth="1"/>
+    <col min="3607" max="3607" width="8.125" style="1" customWidth="1"/>
     <col min="3608" max="3608" width="9" style="1" customWidth="1"/>
-    <col min="3609" max="3840" width="9.09765625" style="1"/>
-    <col min="3841" max="3841" width="10.09765625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3609" max="3840" width="9.125" style="1"/>
+    <col min="3841" max="3841" width="10.125" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="1" customWidth="1"/>
     <col min="3843" max="3843" width="7" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="7.3984375" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="7.09765625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="7.375" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="7.125" style="1" customWidth="1"/>
     <col min="3846" max="3846" width="8" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="8.59765625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.625" style="1" customWidth="1"/>
     <col min="3848" max="3848" width="8" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="8.69921875" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="8.75" style="1" customWidth="1"/>
     <col min="3850" max="3852" width="8" style="1" customWidth="1"/>
-    <col min="3853" max="3855" width="9.69921875" style="1" customWidth="1"/>
-    <col min="3856" max="3858" width="7.69921875" style="1" customWidth="1"/>
-    <col min="3859" max="3859" width="11.3984375" style="1" customWidth="1"/>
-    <col min="3860" max="3861" width="7.09765625" style="1" customWidth="1"/>
+    <col min="3853" max="3855" width="9.75" style="1" customWidth="1"/>
+    <col min="3856" max="3858" width="7.75" style="1" customWidth="1"/>
+    <col min="3859" max="3859" width="11.375" style="1" customWidth="1"/>
+    <col min="3860" max="3861" width="7.125" style="1" customWidth="1"/>
     <col min="3862" max="3862" width="6" style="1" customWidth="1"/>
-    <col min="3863" max="3863" width="8.09765625" style="1" customWidth="1"/>
+    <col min="3863" max="3863" width="8.125" style="1" customWidth="1"/>
     <col min="3864" max="3864" width="9" style="1" customWidth="1"/>
-    <col min="3865" max="4096" width="9.09765625" style="1"/>
-    <col min="4097" max="4097" width="10.09765625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3865" max="4096" width="9.125" style="1"/>
+    <col min="4097" max="4097" width="10.125" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="1" customWidth="1"/>
     <col min="4099" max="4099" width="7" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="7.3984375" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="7.375" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="7.125" style="1" customWidth="1"/>
     <col min="4102" max="4102" width="8" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="8.59765625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.625" style="1" customWidth="1"/>
     <col min="4104" max="4104" width="8" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="8.69921875" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="8.75" style="1" customWidth="1"/>
     <col min="4106" max="4108" width="8" style="1" customWidth="1"/>
-    <col min="4109" max="4111" width="9.69921875" style="1" customWidth="1"/>
-    <col min="4112" max="4114" width="7.69921875" style="1" customWidth="1"/>
-    <col min="4115" max="4115" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4116" max="4117" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4109" max="4111" width="9.75" style="1" customWidth="1"/>
+    <col min="4112" max="4114" width="7.75" style="1" customWidth="1"/>
+    <col min="4115" max="4115" width="11.375" style="1" customWidth="1"/>
+    <col min="4116" max="4117" width="7.125" style="1" customWidth="1"/>
     <col min="4118" max="4118" width="6" style="1" customWidth="1"/>
-    <col min="4119" max="4119" width="8.09765625" style="1" customWidth="1"/>
+    <col min="4119" max="4119" width="8.125" style="1" customWidth="1"/>
     <col min="4120" max="4120" width="9" style="1" customWidth="1"/>
-    <col min="4121" max="4352" width="9.09765625" style="1"/>
-    <col min="4353" max="4353" width="10.09765625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="9.69921875" style="1" customWidth="1"/>
+    <col min="4121" max="4352" width="9.125" style="1"/>
+    <col min="4353" max="4353" width="10.125" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="1" customWidth="1"/>
     <col min="4355" max="4355" width="7" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="7.3984375" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="7.375" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="7.125" style="1" customWidth="1"/>
     <col min="4358" max="4358" width="8" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="8.59765625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.625" style="1" customWidth="1"/>
     <col min="4360" max="4360" width="8" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="8.69921875" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="8.75" style="1" customWidth="1"/>
     <col min="4362" max="4364" width="8" style="1" customWidth="1"/>
-    <col min="4365" max="4367" width="9.69921875" style="1" customWidth="1"/>
-    <col min="4368" max="4370" width="7.69921875" style="1" customWidth="1"/>
-    <col min="4371" max="4371" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4372" max="4373" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4365" max="4367" width="9.75" style="1" customWidth="1"/>
+    <col min="4368" max="4370" width="7.75" style="1" customWidth="1"/>
+    <col min="4371" max="4371" width="11.375" style="1" customWidth="1"/>
+    <col min="4372" max="4373" width="7.125" style="1" customWidth="1"/>
     <col min="4374" max="4374" width="6" style="1" customWidth="1"/>
-    <col min="4375" max="4375" width="8.09765625" style="1" customWidth="1"/>
+    <col min="4375" max="4375" width="8.125" style="1" customWidth="1"/>
     <col min="4376" max="4376" width="9" style="1" customWidth="1"/>
-    <col min="4377" max="4608" width="9.09765625" style="1"/>
-    <col min="4609" max="4609" width="10.09765625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="9.69921875" style="1" customWidth="1"/>
+    <col min="4377" max="4608" width="9.125" style="1"/>
+    <col min="4609" max="4609" width="10.125" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="1" customWidth="1"/>
     <col min="4611" max="4611" width="7" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="7.3984375" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="7.375" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="7.125" style="1" customWidth="1"/>
     <col min="4614" max="4614" width="8" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="8.59765625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.625" style="1" customWidth="1"/>
     <col min="4616" max="4616" width="8" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="8.69921875" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="8.75" style="1" customWidth="1"/>
     <col min="4618" max="4620" width="8" style="1" customWidth="1"/>
-    <col min="4621" max="4623" width="9.69921875" style="1" customWidth="1"/>
-    <col min="4624" max="4626" width="7.69921875" style="1" customWidth="1"/>
-    <col min="4627" max="4627" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4628" max="4629" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4621" max="4623" width="9.75" style="1" customWidth="1"/>
+    <col min="4624" max="4626" width="7.75" style="1" customWidth="1"/>
+    <col min="4627" max="4627" width="11.375" style="1" customWidth="1"/>
+    <col min="4628" max="4629" width="7.125" style="1" customWidth="1"/>
     <col min="4630" max="4630" width="6" style="1" customWidth="1"/>
-    <col min="4631" max="4631" width="8.09765625" style="1" customWidth="1"/>
+    <col min="4631" max="4631" width="8.125" style="1" customWidth="1"/>
     <col min="4632" max="4632" width="9" style="1" customWidth="1"/>
-    <col min="4633" max="4864" width="9.09765625" style="1"/>
-    <col min="4865" max="4865" width="10.09765625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="9.69921875" style="1" customWidth="1"/>
+    <col min="4633" max="4864" width="9.125" style="1"/>
+    <col min="4865" max="4865" width="10.125" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="1" customWidth="1"/>
     <col min="4867" max="4867" width="7" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="7.3984375" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="7.375" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="7.125" style="1" customWidth="1"/>
     <col min="4870" max="4870" width="8" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="8.59765625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.625" style="1" customWidth="1"/>
     <col min="4872" max="4872" width="8" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="8.69921875" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="8.75" style="1" customWidth="1"/>
     <col min="4874" max="4876" width="8" style="1" customWidth="1"/>
-    <col min="4877" max="4879" width="9.69921875" style="1" customWidth="1"/>
-    <col min="4880" max="4882" width="7.69921875" style="1" customWidth="1"/>
-    <col min="4883" max="4883" width="11.3984375" style="1" customWidth="1"/>
-    <col min="4884" max="4885" width="7.09765625" style="1" customWidth="1"/>
+    <col min="4877" max="4879" width="9.75" style="1" customWidth="1"/>
+    <col min="4880" max="4882" width="7.75" style="1" customWidth="1"/>
+    <col min="4883" max="4883" width="11.375" style="1" customWidth="1"/>
+    <col min="4884" max="4885" width="7.125" style="1" customWidth="1"/>
     <col min="4886" max="4886" width="6" style="1" customWidth="1"/>
-    <col min="4887" max="4887" width="8.09765625" style="1" customWidth="1"/>
+    <col min="4887" max="4887" width="8.125" style="1" customWidth="1"/>
     <col min="4888" max="4888" width="9" style="1" customWidth="1"/>
-    <col min="4889" max="5120" width="9.09765625" style="1"/>
-    <col min="5121" max="5121" width="10.09765625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="9.69921875" style="1" customWidth="1"/>
+    <col min="4889" max="5120" width="9.125" style="1"/>
+    <col min="5121" max="5121" width="10.125" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="1" customWidth="1"/>
     <col min="5123" max="5123" width="7" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="7.3984375" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="7.375" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="7.125" style="1" customWidth="1"/>
     <col min="5126" max="5126" width="8" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="8.59765625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.625" style="1" customWidth="1"/>
     <col min="5128" max="5128" width="8" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="8.69921875" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="8.75" style="1" customWidth="1"/>
     <col min="5130" max="5132" width="8" style="1" customWidth="1"/>
-    <col min="5133" max="5135" width="9.69921875" style="1" customWidth="1"/>
-    <col min="5136" max="5138" width="7.69921875" style="1" customWidth="1"/>
-    <col min="5139" max="5139" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5140" max="5141" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5133" max="5135" width="9.75" style="1" customWidth="1"/>
+    <col min="5136" max="5138" width="7.75" style="1" customWidth="1"/>
+    <col min="5139" max="5139" width="11.375" style="1" customWidth="1"/>
+    <col min="5140" max="5141" width="7.125" style="1" customWidth="1"/>
     <col min="5142" max="5142" width="6" style="1" customWidth="1"/>
-    <col min="5143" max="5143" width="8.09765625" style="1" customWidth="1"/>
+    <col min="5143" max="5143" width="8.125" style="1" customWidth="1"/>
     <col min="5144" max="5144" width="9" style="1" customWidth="1"/>
-    <col min="5145" max="5376" width="9.09765625" style="1"/>
-    <col min="5377" max="5377" width="10.09765625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5145" max="5376" width="9.125" style="1"/>
+    <col min="5377" max="5377" width="10.125" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="1" customWidth="1"/>
     <col min="5379" max="5379" width="7" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="7.3984375" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="7.375" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="7.125" style="1" customWidth="1"/>
     <col min="5382" max="5382" width="8" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="8.59765625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.625" style="1" customWidth="1"/>
     <col min="5384" max="5384" width="8" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="8.69921875" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="8.75" style="1" customWidth="1"/>
     <col min="5386" max="5388" width="8" style="1" customWidth="1"/>
-    <col min="5389" max="5391" width="9.69921875" style="1" customWidth="1"/>
-    <col min="5392" max="5394" width="7.69921875" style="1" customWidth="1"/>
-    <col min="5395" max="5395" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5396" max="5397" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5389" max="5391" width="9.75" style="1" customWidth="1"/>
+    <col min="5392" max="5394" width="7.75" style="1" customWidth="1"/>
+    <col min="5395" max="5395" width="11.375" style="1" customWidth="1"/>
+    <col min="5396" max="5397" width="7.125" style="1" customWidth="1"/>
     <col min="5398" max="5398" width="6" style="1" customWidth="1"/>
-    <col min="5399" max="5399" width="8.09765625" style="1" customWidth="1"/>
+    <col min="5399" max="5399" width="8.125" style="1" customWidth="1"/>
     <col min="5400" max="5400" width="9" style="1" customWidth="1"/>
-    <col min="5401" max="5632" width="9.09765625" style="1"/>
-    <col min="5633" max="5633" width="10.09765625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5401" max="5632" width="9.125" style="1"/>
+    <col min="5633" max="5633" width="10.125" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="1" customWidth="1"/>
     <col min="5635" max="5635" width="7" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="7.3984375" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="7.375" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="7.125" style="1" customWidth="1"/>
     <col min="5638" max="5638" width="8" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="8.59765625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.625" style="1" customWidth="1"/>
     <col min="5640" max="5640" width="8" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="8.69921875" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="8.75" style="1" customWidth="1"/>
     <col min="5642" max="5644" width="8" style="1" customWidth="1"/>
-    <col min="5645" max="5647" width="9.69921875" style="1" customWidth="1"/>
-    <col min="5648" max="5650" width="7.69921875" style="1" customWidth="1"/>
-    <col min="5651" max="5651" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5652" max="5653" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5645" max="5647" width="9.75" style="1" customWidth="1"/>
+    <col min="5648" max="5650" width="7.75" style="1" customWidth="1"/>
+    <col min="5651" max="5651" width="11.375" style="1" customWidth="1"/>
+    <col min="5652" max="5653" width="7.125" style="1" customWidth="1"/>
     <col min="5654" max="5654" width="6" style="1" customWidth="1"/>
-    <col min="5655" max="5655" width="8.09765625" style="1" customWidth="1"/>
+    <col min="5655" max="5655" width="8.125" style="1" customWidth="1"/>
     <col min="5656" max="5656" width="9" style="1" customWidth="1"/>
-    <col min="5657" max="5888" width="9.09765625" style="1"/>
-    <col min="5889" max="5889" width="10.09765625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5657" max="5888" width="9.125" style="1"/>
+    <col min="5889" max="5889" width="10.125" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="1" customWidth="1"/>
     <col min="5891" max="5891" width="7" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="7.3984375" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="7.375" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="7.125" style="1" customWidth="1"/>
     <col min="5894" max="5894" width="8" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="8.59765625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.625" style="1" customWidth="1"/>
     <col min="5896" max="5896" width="8" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="8.69921875" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="8.75" style="1" customWidth="1"/>
     <col min="5898" max="5900" width="8" style="1" customWidth="1"/>
-    <col min="5901" max="5903" width="9.69921875" style="1" customWidth="1"/>
-    <col min="5904" max="5906" width="7.69921875" style="1" customWidth="1"/>
-    <col min="5907" max="5907" width="11.3984375" style="1" customWidth="1"/>
-    <col min="5908" max="5909" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5901" max="5903" width="9.75" style="1" customWidth="1"/>
+    <col min="5904" max="5906" width="7.75" style="1" customWidth="1"/>
+    <col min="5907" max="5907" width="11.375" style="1" customWidth="1"/>
+    <col min="5908" max="5909" width="7.125" style="1" customWidth="1"/>
     <col min="5910" max="5910" width="6" style="1" customWidth="1"/>
-    <col min="5911" max="5911" width="8.09765625" style="1" customWidth="1"/>
+    <col min="5911" max="5911" width="8.125" style="1" customWidth="1"/>
     <col min="5912" max="5912" width="9" style="1" customWidth="1"/>
-    <col min="5913" max="6144" width="9.09765625" style="1"/>
-    <col min="6145" max="6145" width="10.09765625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5913" max="6144" width="9.125" style="1"/>
+    <col min="6145" max="6145" width="10.125" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="1" customWidth="1"/>
     <col min="6147" max="6147" width="7" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="7.3984375" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="7.09765625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="7.375" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="7.125" style="1" customWidth="1"/>
     <col min="6150" max="6150" width="8" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="8.59765625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.625" style="1" customWidth="1"/>
     <col min="6152" max="6152" width="8" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="8.69921875" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="8.75" style="1" customWidth="1"/>
     <col min="6154" max="6156" width="8" style="1" customWidth="1"/>
-    <col min="6157" max="6159" width="9.69921875" style="1" customWidth="1"/>
-    <col min="6160" max="6162" width="7.69921875" style="1" customWidth="1"/>
-    <col min="6163" max="6163" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6164" max="6165" width="7.09765625" style="1" customWidth="1"/>
+    <col min="6157" max="6159" width="9.75" style="1" customWidth="1"/>
+    <col min="6160" max="6162" width="7.75" style="1" customWidth="1"/>
+    <col min="6163" max="6163" width="11.375" style="1" customWidth="1"/>
+    <col min="6164" max="6165" width="7.125" style="1" customWidth="1"/>
     <col min="6166" max="6166" width="6" style="1" customWidth="1"/>
-    <col min="6167" max="6167" width="8.09765625" style="1" customWidth="1"/>
+    <col min="6167" max="6167" width="8.125" style="1" customWidth="1"/>
     <col min="6168" max="6168" width="9" style="1" customWidth="1"/>
-    <col min="6169" max="6400" width="9.09765625" style="1"/>
-    <col min="6401" max="6401" width="10.09765625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6169" max="6400" width="9.125" style="1"/>
+    <col min="6401" max="6401" width="10.125" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="1" customWidth="1"/>
     <col min="6403" max="6403" width="7" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="7.3984375" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="7.09765625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="7.375" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="7.125" style="1" customWidth="1"/>
     <col min="6406" max="6406" width="8" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="8.59765625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.625" style="1" customWidth="1"/>
     <col min="6408" max="6408" width="8" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="8.69921875" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="8.75" style="1" customWidth="1"/>
     <col min="6410" max="6412" width="8" style="1" customWidth="1"/>
-    <col min="6413" max="6415" width="9.69921875" style="1" customWidth="1"/>
-    <col min="6416" max="6418" width="7.69921875" style="1" customWidth="1"/>
-    <col min="6419" max="6419" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6420" max="6421" width="7.09765625" style="1" customWidth="1"/>
+    <col min="6413" max="6415" width="9.75" style="1" customWidth="1"/>
+    <col min="6416" max="6418" width="7.75" style="1" customWidth="1"/>
+    <col min="6419" max="6419" width="11.375" style="1" customWidth="1"/>
+    <col min="6420" max="6421" width="7.125" style="1" customWidth="1"/>
     <col min="6422" max="6422" width="6" style="1" customWidth="1"/>
-    <col min="6423" max="6423" width="8.09765625" style="1" customWidth="1"/>
+    <col min="6423" max="6423" width="8.125" style="1" customWidth="1"/>
     <col min="6424" max="6424" width="9" style="1" customWidth="1"/>
-    <col min="6425" max="6656" width="9.09765625" style="1"/>
-    <col min="6657" max="6657" width="10.09765625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6425" max="6656" width="9.125" style="1"/>
+    <col min="6657" max="6657" width="10.125" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="1" customWidth="1"/>
     <col min="6659" max="6659" width="7" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="7.3984375" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="7.09765625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="7.375" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="7.125" style="1" customWidth="1"/>
     <col min="6662" max="6662" width="8" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="8.59765625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.625" style="1" customWidth="1"/>
     <col min="6664" max="6664" width="8" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="8.69921875" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="8.75" style="1" customWidth="1"/>
     <col min="6666" max="6668" width="8" style="1" customWidth="1"/>
-    <col min="6669" max="6671" width="9.69921875" style="1" customWidth="1"/>
-    <col min="6672" max="6674" width="7.69921875" style="1" customWidth="1"/>
-    <col min="6675" max="6675" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6676" max="6677" width="7.09765625" style="1" customWidth="1"/>
+    <col min="6669" max="6671" width="9.75" style="1" customWidth="1"/>
+    <col min="6672" max="6674" width="7.75" style="1" customWidth="1"/>
+    <col min="6675" max="6675" width="11.375" style="1" customWidth="1"/>
+    <col min="6676" max="6677" width="7.125" style="1" customWidth="1"/>
     <col min="6678" max="6678" width="6" style="1" customWidth="1"/>
-    <col min="6679" max="6679" width="8.09765625" style="1" customWidth="1"/>
+    <col min="6679" max="6679" width="8.125" style="1" customWidth="1"/>
     <col min="6680" max="6680" width="9" style="1" customWidth="1"/>
-    <col min="6681" max="6912" width="9.09765625" style="1"/>
-    <col min="6913" max="6913" width="10.09765625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6681" max="6912" width="9.125" style="1"/>
+    <col min="6913" max="6913" width="10.125" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="1" customWidth="1"/>
     <col min="6915" max="6915" width="7" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="7.3984375" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="7.09765625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="7.375" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="7.125" style="1" customWidth="1"/>
     <col min="6918" max="6918" width="8" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="8.59765625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.625" style="1" customWidth="1"/>
     <col min="6920" max="6920" width="8" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="8.69921875" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="8.75" style="1" customWidth="1"/>
     <col min="6922" max="6924" width="8" style="1" customWidth="1"/>
-    <col min="6925" max="6927" width="9.69921875" style="1" customWidth="1"/>
-    <col min="6928" max="6930" width="7.69921875" style="1" customWidth="1"/>
-    <col min="6931" max="6931" width="11.3984375" style="1" customWidth="1"/>
-    <col min="6932" max="6933" width="7.09765625" style="1" customWidth="1"/>
+    <col min="6925" max="6927" width="9.75" style="1" customWidth="1"/>
+    <col min="6928" max="6930" width="7.75" style="1" customWidth="1"/>
+    <col min="6931" max="6931" width="11.375" style="1" customWidth="1"/>
+    <col min="6932" max="6933" width="7.125" style="1" customWidth="1"/>
     <col min="6934" max="6934" width="6" style="1" customWidth="1"/>
-    <col min="6935" max="6935" width="8.09765625" style="1" customWidth="1"/>
+    <col min="6935" max="6935" width="8.125" style="1" customWidth="1"/>
     <col min="6936" max="6936" width="9" style="1" customWidth="1"/>
-    <col min="6937" max="7168" width="9.09765625" style="1"/>
-    <col min="7169" max="7169" width="10.09765625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6937" max="7168" width="9.125" style="1"/>
+    <col min="7169" max="7169" width="10.125" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="1" customWidth="1"/>
     <col min="7171" max="7171" width="7" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="7.3984375" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="7.375" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="7.125" style="1" customWidth="1"/>
     <col min="7174" max="7174" width="8" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="8.59765625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.625" style="1" customWidth="1"/>
     <col min="7176" max="7176" width="8" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="8.69921875" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="8.75" style="1" customWidth="1"/>
     <col min="7178" max="7180" width="8" style="1" customWidth="1"/>
-    <col min="7181" max="7183" width="9.69921875" style="1" customWidth="1"/>
-    <col min="7184" max="7186" width="7.69921875" style="1" customWidth="1"/>
-    <col min="7187" max="7187" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7188" max="7189" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7181" max="7183" width="9.75" style="1" customWidth="1"/>
+    <col min="7184" max="7186" width="7.75" style="1" customWidth="1"/>
+    <col min="7187" max="7187" width="11.375" style="1" customWidth="1"/>
+    <col min="7188" max="7189" width="7.125" style="1" customWidth="1"/>
     <col min="7190" max="7190" width="6" style="1" customWidth="1"/>
-    <col min="7191" max="7191" width="8.09765625" style="1" customWidth="1"/>
+    <col min="7191" max="7191" width="8.125" style="1" customWidth="1"/>
     <col min="7192" max="7192" width="9" style="1" customWidth="1"/>
-    <col min="7193" max="7424" width="9.09765625" style="1"/>
-    <col min="7425" max="7425" width="10.09765625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7193" max="7424" width="9.125" style="1"/>
+    <col min="7425" max="7425" width="10.125" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="1" customWidth="1"/>
     <col min="7427" max="7427" width="7" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="7.3984375" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="7.375" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="7.125" style="1" customWidth="1"/>
     <col min="7430" max="7430" width="8" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="8.59765625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.625" style="1" customWidth="1"/>
     <col min="7432" max="7432" width="8" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="8.69921875" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="8.75" style="1" customWidth="1"/>
     <col min="7434" max="7436" width="8" style="1" customWidth="1"/>
-    <col min="7437" max="7439" width="9.69921875" style="1" customWidth="1"/>
-    <col min="7440" max="7442" width="7.69921875" style="1" customWidth="1"/>
-    <col min="7443" max="7443" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7444" max="7445" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7437" max="7439" width="9.75" style="1" customWidth="1"/>
+    <col min="7440" max="7442" width="7.75" style="1" customWidth="1"/>
+    <col min="7443" max="7443" width="11.375" style="1" customWidth="1"/>
+    <col min="7444" max="7445" width="7.125" style="1" customWidth="1"/>
     <col min="7446" max="7446" width="6" style="1" customWidth="1"/>
-    <col min="7447" max="7447" width="8.09765625" style="1" customWidth="1"/>
+    <col min="7447" max="7447" width="8.125" style="1" customWidth="1"/>
     <col min="7448" max="7448" width="9" style="1" customWidth="1"/>
-    <col min="7449" max="7680" width="9.09765625" style="1"/>
-    <col min="7681" max="7681" width="10.09765625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7449" max="7680" width="9.125" style="1"/>
+    <col min="7681" max="7681" width="10.125" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="1" customWidth="1"/>
     <col min="7683" max="7683" width="7" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="7.3984375" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="7.375" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="7.125" style="1" customWidth="1"/>
     <col min="7686" max="7686" width="8" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="8.59765625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.625" style="1" customWidth="1"/>
     <col min="7688" max="7688" width="8" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="8.69921875" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="8.75" style="1" customWidth="1"/>
     <col min="7690" max="7692" width="8" style="1" customWidth="1"/>
-    <col min="7693" max="7695" width="9.69921875" style="1" customWidth="1"/>
-    <col min="7696" max="7698" width="7.69921875" style="1" customWidth="1"/>
-    <col min="7699" max="7699" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7700" max="7701" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7693" max="7695" width="9.75" style="1" customWidth="1"/>
+    <col min="7696" max="7698" width="7.75" style="1" customWidth="1"/>
+    <col min="7699" max="7699" width="11.375" style="1" customWidth="1"/>
+    <col min="7700" max="7701" width="7.125" style="1" customWidth="1"/>
     <col min="7702" max="7702" width="6" style="1" customWidth="1"/>
-    <col min="7703" max="7703" width="8.09765625" style="1" customWidth="1"/>
+    <col min="7703" max="7703" width="8.125" style="1" customWidth="1"/>
     <col min="7704" max="7704" width="9" style="1" customWidth="1"/>
-    <col min="7705" max="7936" width="9.09765625" style="1"/>
-    <col min="7937" max="7937" width="10.09765625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7705" max="7936" width="9.125" style="1"/>
+    <col min="7937" max="7937" width="10.125" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="1" customWidth="1"/>
     <col min="7939" max="7939" width="7" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="7.3984375" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="7.375" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="7.125" style="1" customWidth="1"/>
     <col min="7942" max="7942" width="8" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="8.59765625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.625" style="1" customWidth="1"/>
     <col min="7944" max="7944" width="8" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="8.69921875" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="8.75" style="1" customWidth="1"/>
     <col min="7946" max="7948" width="8" style="1" customWidth="1"/>
-    <col min="7949" max="7951" width="9.69921875" style="1" customWidth="1"/>
-    <col min="7952" max="7954" width="7.69921875" style="1" customWidth="1"/>
-    <col min="7955" max="7955" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7956" max="7957" width="7.09765625" style="1" customWidth="1"/>
+    <col min="7949" max="7951" width="9.75" style="1" customWidth="1"/>
+    <col min="7952" max="7954" width="7.75" style="1" customWidth="1"/>
+    <col min="7955" max="7955" width="11.375" style="1" customWidth="1"/>
+    <col min="7956" max="7957" width="7.125" style="1" customWidth="1"/>
     <col min="7958" max="7958" width="6" style="1" customWidth="1"/>
-    <col min="7959" max="7959" width="8.09765625" style="1" customWidth="1"/>
+    <col min="7959" max="7959" width="8.125" style="1" customWidth="1"/>
     <col min="7960" max="7960" width="9" style="1" customWidth="1"/>
-    <col min="7961" max="8192" width="9.09765625" style="1"/>
-    <col min="8193" max="8193" width="10.09765625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7961" max="8192" width="9.125" style="1"/>
+    <col min="8193" max="8193" width="10.125" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="1" customWidth="1"/>
     <col min="8195" max="8195" width="7" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="7.3984375" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="7.09765625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="7.375" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="7.125" style="1" customWidth="1"/>
     <col min="8198" max="8198" width="8" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="8.59765625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.625" style="1" customWidth="1"/>
     <col min="8200" max="8200" width="8" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="8.69921875" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="8.75" style="1" customWidth="1"/>
     <col min="8202" max="8204" width="8" style="1" customWidth="1"/>
-    <col min="8205" max="8207" width="9.69921875" style="1" customWidth="1"/>
-    <col min="8208" max="8210" width="7.69921875" style="1" customWidth="1"/>
-    <col min="8211" max="8211" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8212" max="8213" width="7.09765625" style="1" customWidth="1"/>
+    <col min="8205" max="8207" width="9.75" style="1" customWidth="1"/>
+    <col min="8208" max="8210" width="7.75" style="1" customWidth="1"/>
+    <col min="8211" max="8211" width="11.375" style="1" customWidth="1"/>
+    <col min="8212" max="8213" width="7.125" style="1" customWidth="1"/>
     <col min="8214" max="8214" width="6" style="1" customWidth="1"/>
-    <col min="8215" max="8215" width="8.09765625" style="1" customWidth="1"/>
+    <col min="8215" max="8215" width="8.125" style="1" customWidth="1"/>
     <col min="8216" max="8216" width="9" style="1" customWidth="1"/>
-    <col min="8217" max="8448" width="9.09765625" style="1"/>
-    <col min="8449" max="8449" width="10.09765625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8217" max="8448" width="9.125" style="1"/>
+    <col min="8449" max="8449" width="10.125" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="1" customWidth="1"/>
     <col min="8451" max="8451" width="7" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="7.3984375" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="7.09765625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="7.375" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="7.125" style="1" customWidth="1"/>
     <col min="8454" max="8454" width="8" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="8.59765625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.625" style="1" customWidth="1"/>
     <col min="8456" max="8456" width="8" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="8.69921875" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="8.75" style="1" customWidth="1"/>
     <col min="8458" max="8460" width="8" style="1" customWidth="1"/>
-    <col min="8461" max="8463" width="9.69921875" style="1" customWidth="1"/>
-    <col min="8464" max="8466" width="7.69921875" style="1" customWidth="1"/>
-    <col min="8467" max="8467" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8468" max="8469" width="7.09765625" style="1" customWidth="1"/>
+    <col min="8461" max="8463" width="9.75" style="1" customWidth="1"/>
+    <col min="8464" max="8466" width="7.75" style="1" customWidth="1"/>
+    <col min="8467" max="8467" width="11.375" style="1" customWidth="1"/>
+    <col min="8468" max="8469" width="7.125" style="1" customWidth="1"/>
     <col min="8470" max="8470" width="6" style="1" customWidth="1"/>
-    <col min="8471" max="8471" width="8.09765625" style="1" customWidth="1"/>
+    <col min="8471" max="8471" width="8.125" style="1" customWidth="1"/>
     <col min="8472" max="8472" width="9" style="1" customWidth="1"/>
-    <col min="8473" max="8704" width="9.09765625" style="1"/>
-    <col min="8705" max="8705" width="10.09765625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8473" max="8704" width="9.125" style="1"/>
+    <col min="8705" max="8705" width="10.125" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="1" customWidth="1"/>
     <col min="8707" max="8707" width="7" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="7.3984375" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="7.09765625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="7.375" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="7.125" style="1" customWidth="1"/>
     <col min="8710" max="8710" width="8" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="8.59765625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.625" style="1" customWidth="1"/>
     <col min="8712" max="8712" width="8" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="8.69921875" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="8.75" style="1" customWidth="1"/>
     <col min="8714" max="8716" width="8" style="1" customWidth="1"/>
-    <col min="8717" max="8719" width="9.69921875" style="1" customWidth="1"/>
-    <col min="8720" max="8722" width="7.69921875" style="1" customWidth="1"/>
-    <col min="8723" max="8723" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8724" max="8725" width="7.09765625" style="1" customWidth="1"/>
+    <col min="8717" max="8719" width="9.75" style="1" customWidth="1"/>
+    <col min="8720" max="8722" width="7.75" style="1" customWidth="1"/>
+    <col min="8723" max="8723" width="11.375" style="1" customWidth="1"/>
+    <col min="8724" max="8725" width="7.125" style="1" customWidth="1"/>
     <col min="8726" max="8726" width="6" style="1" customWidth="1"/>
-    <col min="8727" max="8727" width="8.09765625" style="1" customWidth="1"/>
+    <col min="8727" max="8727" width="8.125" style="1" customWidth="1"/>
     <col min="8728" max="8728" width="9" style="1" customWidth="1"/>
-    <col min="8729" max="8960" width="9.09765625" style="1"/>
-    <col min="8961" max="8961" width="10.09765625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8729" max="8960" width="9.125" style="1"/>
+    <col min="8961" max="8961" width="10.125" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="1" customWidth="1"/>
     <col min="8963" max="8963" width="7" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="7.3984375" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="7.09765625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="7.375" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="7.125" style="1" customWidth="1"/>
     <col min="8966" max="8966" width="8" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="8.59765625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.625" style="1" customWidth="1"/>
     <col min="8968" max="8968" width="8" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="8.69921875" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="8.75" style="1" customWidth="1"/>
     <col min="8970" max="8972" width="8" style="1" customWidth="1"/>
-    <col min="8973" max="8975" width="9.69921875" style="1" customWidth="1"/>
-    <col min="8976" max="8978" width="7.69921875" style="1" customWidth="1"/>
-    <col min="8979" max="8979" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8980" max="8981" width="7.09765625" style="1" customWidth="1"/>
+    <col min="8973" max="8975" width="9.75" style="1" customWidth="1"/>
+    <col min="8976" max="8978" width="7.75" style="1" customWidth="1"/>
+    <col min="8979" max="8979" width="11.375" style="1" customWidth="1"/>
+    <col min="8980" max="8981" width="7.125" style="1" customWidth="1"/>
     <col min="8982" max="8982" width="6" style="1" customWidth="1"/>
-    <col min="8983" max="8983" width="8.09765625" style="1" customWidth="1"/>
+    <col min="8983" max="8983" width="8.125" style="1" customWidth="1"/>
     <col min="8984" max="8984" width="9" style="1" customWidth="1"/>
-    <col min="8985" max="9216" width="9.09765625" style="1"/>
-    <col min="9217" max="9217" width="10.09765625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8985" max="9216" width="9.125" style="1"/>
+    <col min="9217" max="9217" width="10.125" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="1" customWidth="1"/>
     <col min="9219" max="9219" width="7" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="7.3984375" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="7.375" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="7.125" style="1" customWidth="1"/>
     <col min="9222" max="9222" width="8" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="8.59765625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.625" style="1" customWidth="1"/>
     <col min="9224" max="9224" width="8" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="8.69921875" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="8.75" style="1" customWidth="1"/>
     <col min="9226" max="9228" width="8" style="1" customWidth="1"/>
-    <col min="9229" max="9231" width="9.69921875" style="1" customWidth="1"/>
-    <col min="9232" max="9234" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9235" max="9235" width="11.3984375" style="1" customWidth="1"/>
-    <col min="9236" max="9237" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9229" max="9231" width="9.75" style="1" customWidth="1"/>
+    <col min="9232" max="9234" width="7.75" style="1" customWidth="1"/>
+    <col min="9235" max="9235" width="11.375" style="1" customWidth="1"/>
+    <col min="9236" max="9237" width="7.125" style="1" customWidth="1"/>
     <col min="9238" max="9238" width="6" style="1" customWidth="1"/>
-    <col min="9239" max="9239" width="8.09765625" style="1" customWidth="1"/>
+    <col min="9239" max="9239" width="8.125" style="1" customWidth="1"/>
     <col min="9240" max="9240" width="9" style="1" customWidth="1"/>
-    <col min="9241" max="9472" width="9.09765625" style="1"/>
-    <col min="9473" max="9473" width="10.09765625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9241" max="9472" width="9.125" style="1"/>
+    <col min="9473" max="9473" width="10.125" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="1" customWidth="1"/>
     <col min="9475" max="9475" width="7" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="7.3984375" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="7.375" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="7.125" style="1" customWidth="1"/>
     <col min="9478" max="9478" width="8" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="8.59765625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.625" style="1" customWidth="1"/>
     <col min="9480" max="9480" width="8" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="8.69921875" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="8.75" style="1" customWidth="1"/>
     <col min="9482" max="9484" width="8" style="1" customWidth="1"/>
-    <col min="9485" max="9487" width="9.69921875" style="1" customWidth="1"/>
-    <col min="9488" max="9490" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9491" max="9491" width="11.3984375" style="1" customWidth="1"/>
-    <col min="9492" max="9493" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9485" max="9487" width="9.75" style="1" customWidth="1"/>
+    <col min="9488" max="9490" width="7.75" style="1" customWidth="1"/>
+    <col min="9491" max="9491" width="11.375" style="1" customWidth="1"/>
+    <col min="9492" max="9493" width="7.125" style="1" customWidth="1"/>
     <col min="9494" max="9494" width="6" style="1" customWidth="1"/>
-    <col min="9495" max="9495" width="8.09765625" style="1" customWidth="1"/>
+    <col min="9495" max="9495" width="8.125" style="1" customWidth="1"/>
     <col min="9496" max="9496" width="9" style="1" customWidth="1"/>
-    <col min="9497" max="9728" width="9.09765625" style="1"/>
-    <col min="9729" max="9729" width="10.09765625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9497" max="9728" width="9.125" style="1"/>
+    <col min="9729" max="9729" width="10.125" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="1" customWidth="1"/>
     <col min="9731" max="9731" width="7" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="7.3984375" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="7.375" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="7.125" style="1" customWidth="1"/>
     <col min="9734" max="9734" width="8" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="8.59765625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.625" style="1" customWidth="1"/>
     <col min="9736" max="9736" width="8" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="8.69921875" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="8.75" style="1" customWidth="1"/>
     <col min="9738" max="9740" width="8" style="1" customWidth="1"/>
-    <col min="9741" max="9743" width="9.69921875" style="1" customWidth="1"/>
-    <col min="9744" max="9746" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9747" max="9747" width="11.3984375" style="1" customWidth="1"/>
-    <col min="9748" max="9749" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9741" max="9743" width="9.75" style="1" customWidth="1"/>
+    <col min="9744" max="9746" width="7.75" style="1" customWidth="1"/>
+    <col min="9747" max="9747" width="11.375" style="1" customWidth="1"/>
+    <col min="9748" max="9749" width="7.125" style="1" customWidth="1"/>
     <col min="9750" max="9750" width="6" style="1" customWidth="1"/>
-    <col min="9751" max="9751" width="8.09765625" style="1" customWidth="1"/>
+    <col min="9751" max="9751" width="8.125" style="1" customWidth="1"/>
     <col min="9752" max="9752" width="9" style="1" customWidth="1"/>
-    <col min="9753" max="9984" width="9.09765625" style="1"/>
-    <col min="9985" max="9985" width="10.09765625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9753" max="9984" width="9.125" style="1"/>
+    <col min="9985" max="9985" width="10.125" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="1" customWidth="1"/>
     <col min="9987" max="9987" width="7" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="7.3984375" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="7.375" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="7.125" style="1" customWidth="1"/>
     <col min="9990" max="9990" width="8" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="8.59765625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.625" style="1" customWidth="1"/>
     <col min="9992" max="9992" width="8" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="8.69921875" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="8.75" style="1" customWidth="1"/>
     <col min="9994" max="9996" width="8" style="1" customWidth="1"/>
-    <col min="9997" max="9999" width="9.69921875" style="1" customWidth="1"/>
-    <col min="10000" max="10002" width="7.69921875" style="1" customWidth="1"/>
-    <col min="10003" max="10003" width="11.3984375" style="1" customWidth="1"/>
-    <col min="10004" max="10005" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9997" max="9999" width="9.75" style="1" customWidth="1"/>
+    <col min="10000" max="10002" width="7.75" style="1" customWidth="1"/>
+    <col min="10003" max="10003" width="11.375" style="1" customWidth="1"/>
+    <col min="10004" max="10005" width="7.125" style="1" customWidth="1"/>
     <col min="10006" max="10006" width="6" style="1" customWidth="1"/>
-    <col min="10007" max="10007" width="8.09765625" style="1" customWidth="1"/>
+    <col min="10007" max="10007" width="8.125" style="1" customWidth="1"/>
     <col min="10008" max="10008" width="9" style="1" customWidth="1"/>
-    <col min="10009" max="10240" width="9.09765625" style="1"/>
-    <col min="10241" max="10241" width="10.09765625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="9.69921875" style="1" customWidth="1"/>
+    <col min="10009" max="10240" width="9.125" style="1"/>
+    <col min="10241" max="10241" width="10.125" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="1" customWidth="1"/>
     <col min="10243" max="10243" width="7" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="7.3984375" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="7.09765625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="7.375" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="7.125" style="1" customWidth="1"/>
     <col min="10246" max="10246" width="8" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="8.59765625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.625" style="1" customWidth="1"/>
     <col min="10248" max="10248" width="8" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="8.69921875" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="8.75" style="1" customWidth="1"/>
     <col min="10250" max="10252" width="8" style="1" customWidth="1"/>
-    <col min="10253" max="10255" width="9.69921875" style="1" customWidth="1"/>
-    <col min="10256" max="10258" width="7.69921875" style="1" customWidth="1"/>
-    <col min="10259" max="10259" width="11.3984375" style="1" customWidth="1"/>
-    <col min="10260" max="10261" width="7.09765625" style="1" customWidth="1"/>
+    <col min="10253" max="10255" width="9.75" style="1" customWidth="1"/>
+    <col min="10256" max="10258" width="7.75" style="1" customWidth="1"/>
+    <col min="10259" max="10259" width="11.375" style="1" customWidth="1"/>
+    <col min="10260" max="10261" width="7.125" style="1" customWidth="1"/>
     <col min="10262" max="10262" width="6" style="1" customWidth="1"/>
-    <col min="10263" max="10263" width="8.09765625" style="1" customWidth="1"/>
+    <col min="10263" max="10263" width="8.125" style="1" customWidth="1"/>
     <col min="10264" max="10264" width="9" style="1" customWidth="1"/>
-    <col min="10265" max="10496" width="9.09765625" style="1"/>
-    <col min="10497" max="10497" width="10.09765625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="9.69921875" style="1" customWidth="1"/>
+    <col min="10265" max="10496" width="9.125" style="1"/>
+    <col min="10497" max="10497" width="10.125" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="1" customWidth="1"/>
     <col min="10499" max="10499" width="7" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="7.3984375" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="7.09765625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="7.375" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="7.125" style="1" customWidth="1"/>
     <col min="10502" max="10502" width="8" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="8.59765625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.625" style="1" customWidth="1"/>
     <col min="10504" max="10504" width="8" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="8.69921875" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="8.75" style="1" customWidth="1"/>
     <col min="10506" max="10508" width="8" style="1" customWidth="1"/>
-    <col min="10509" max="10511" width="9.69921875" style="1" customWidth="1"/>
-    <col min="10512" max="10514" width="7.69921875" style="1" customWidth="1"/>
-    <col min="10515" max="10515" width="11.3984375" style="1" customWidth="1"/>
-    <col min="10516" max="10517" width="7.09765625" style="1" customWidth="1"/>
+    <col min="10509" max="10511" width="9.75" style="1" customWidth="1"/>
+    <col min="10512" max="10514" width="7.75" style="1" customWidth="1"/>
+    <col min="10515" max="10515" width="11.375" style="1" customWidth="1"/>
+    <col min="10516" max="10517" width="7.125" style="1" customWidth="1"/>
     <col min="10518" max="10518" width="6" style="1" customWidth="1"/>
-    <col min="10519" max="10519" width="8.09765625" style="1" customWidth="1"/>
+    <col min="10519" max="10519" width="8.125" style="1" customWidth="1"/>
     <col min="10520" max="10520" width="9" style="1" customWidth="1"/>
-    <col min="10521" max="10752" width="9.09765625" style="1"/>
-    <col min="10753" max="10753" width="10.09765625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="9.69921875" style="1" customWidth="1"/>
+    <col min="10521" max="10752" width="9.125" style="1"/>
+    <col min="10753" max="10753" width="10.125" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="1" customWidth="1"/>
     <col min="10755" max="10755" width="7" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="7.3984375" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="7.09765625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="7.375" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="7.125" style="1" customWidth="1"/>
     <col min="10758" max="10758" width="8" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="8.59765625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.625" style="1" customWidth="1"/>
     <col min="10760" max="10760" width="8" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="8.69921875" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="8.75" style="1" customWidth="1"/>
     <col min="10762" max="10764" width="8" style="1" customWidth="1"/>
-    <col min="10765" max="10767" width="9.69921875" style="1" customWidth="1"/>
-    <col min="10768" max="10770" width="7.69921875" style="1" customWidth="1"/>
-    <col min="10771" max="10771" width="11.3984375" style="1" customWidth="1"/>
-    <col min="10772" max="10773" width="7.09765625" style="1" customWidth="1"/>
+    <col min="10765" max="10767" width="9.75" style="1" customWidth="1"/>
+    <col min="10768" max="10770" width="7.75" style="1" customWidth="1"/>
+    <col min="10771" max="10771" width="11.375" style="1" customWidth="1"/>
+    <col min="10772" max="10773" width="7.125" style="1" customWidth="1"/>
     <col min="10774" max="10774" width="6" style="1" customWidth="1"/>
-    <col min="10775" max="10775" width="8.09765625" style="1" customWidth="1"/>
+    <col min="10775" max="10775" width="8.125" style="1" customWidth="1"/>
     <col min="10776" max="10776" width="9" style="1" customWidth="1"/>
-    <col min="10777" max="11008" width="9.09765625" style="1"/>
-    <col min="11009" max="11009" width="10.09765625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="9.69921875" style="1" customWidth="1"/>
+    <col min="10777" max="11008" width="9.125" style="1"/>
+    <col min="11009" max="11009" width="10.125" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="1" customWidth="1"/>
     <col min="11011" max="11011" width="7" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="7.3984375" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="7.375" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="7.125" style="1" customWidth="1"/>
     <col min="11014" max="11014" width="8" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.625" style="1" customWidth="1"/>
     <col min="11016" max="11016" width="8" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="8.69921875" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="8.75" style="1" customWidth="1"/>
     <col min="11018" max="11020" width="8" style="1" customWidth="1"/>
-    <col min="11021" max="11023" width="9.69921875" style="1" customWidth="1"/>
-    <col min="11024" max="11026" width="7.69921875" style="1" customWidth="1"/>
-    <col min="11027" max="11027" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11028" max="11029" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11021" max="11023" width="9.75" style="1" customWidth="1"/>
+    <col min="11024" max="11026" width="7.75" style="1" customWidth="1"/>
+    <col min="11027" max="11027" width="11.375" style="1" customWidth="1"/>
+    <col min="11028" max="11029" width="7.125" style="1" customWidth="1"/>
     <col min="11030" max="11030" width="6" style="1" customWidth="1"/>
-    <col min="11031" max="11031" width="8.09765625" style="1" customWidth="1"/>
+    <col min="11031" max="11031" width="8.125" style="1" customWidth="1"/>
     <col min="11032" max="11032" width="9" style="1" customWidth="1"/>
-    <col min="11033" max="11264" width="9.09765625" style="1"/>
-    <col min="11265" max="11265" width="10.09765625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11033" max="11264" width="9.125" style="1"/>
+    <col min="11265" max="11265" width="10.125" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="1" customWidth="1"/>
     <col min="11267" max="11267" width="7" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="7.3984375" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="7.375" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="7.125" style="1" customWidth="1"/>
     <col min="11270" max="11270" width="8" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.625" style="1" customWidth="1"/>
     <col min="11272" max="11272" width="8" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="8.69921875" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="8.75" style="1" customWidth="1"/>
     <col min="11274" max="11276" width="8" style="1" customWidth="1"/>
-    <col min="11277" max="11279" width="9.69921875" style="1" customWidth="1"/>
-    <col min="11280" max="11282" width="7.69921875" style="1" customWidth="1"/>
-    <col min="11283" max="11283" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11284" max="11285" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11277" max="11279" width="9.75" style="1" customWidth="1"/>
+    <col min="11280" max="11282" width="7.75" style="1" customWidth="1"/>
+    <col min="11283" max="11283" width="11.375" style="1" customWidth="1"/>
+    <col min="11284" max="11285" width="7.125" style="1" customWidth="1"/>
     <col min="11286" max="11286" width="6" style="1" customWidth="1"/>
-    <col min="11287" max="11287" width="8.09765625" style="1" customWidth="1"/>
+    <col min="11287" max="11287" width="8.125" style="1" customWidth="1"/>
     <col min="11288" max="11288" width="9" style="1" customWidth="1"/>
-    <col min="11289" max="11520" width="9.09765625" style="1"/>
-    <col min="11521" max="11521" width="10.09765625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11289" max="11520" width="9.125" style="1"/>
+    <col min="11521" max="11521" width="10.125" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="1" customWidth="1"/>
     <col min="11523" max="11523" width="7" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="7.3984375" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="7.375" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="7.125" style="1" customWidth="1"/>
     <col min="11526" max="11526" width="8" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.625" style="1" customWidth="1"/>
     <col min="11528" max="11528" width="8" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="8.69921875" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="8.75" style="1" customWidth="1"/>
     <col min="11530" max="11532" width="8" style="1" customWidth="1"/>
-    <col min="11533" max="11535" width="9.69921875" style="1" customWidth="1"/>
-    <col min="11536" max="11538" width="7.69921875" style="1" customWidth="1"/>
-    <col min="11539" max="11539" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11540" max="11541" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11533" max="11535" width="9.75" style="1" customWidth="1"/>
+    <col min="11536" max="11538" width="7.75" style="1" customWidth="1"/>
+    <col min="11539" max="11539" width="11.375" style="1" customWidth="1"/>
+    <col min="11540" max="11541" width="7.125" style="1" customWidth="1"/>
     <col min="11542" max="11542" width="6" style="1" customWidth="1"/>
-    <col min="11543" max="11543" width="8.09765625" style="1" customWidth="1"/>
+    <col min="11543" max="11543" width="8.125" style="1" customWidth="1"/>
     <col min="11544" max="11544" width="9" style="1" customWidth="1"/>
-    <col min="11545" max="11776" width="9.09765625" style="1"/>
-    <col min="11777" max="11777" width="10.09765625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11545" max="11776" width="9.125" style="1"/>
+    <col min="11777" max="11777" width="10.125" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="1" customWidth="1"/>
     <col min="11779" max="11779" width="7" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="7.3984375" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="7.375" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="7.125" style="1" customWidth="1"/>
     <col min="11782" max="11782" width="8" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="8.59765625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.625" style="1" customWidth="1"/>
     <col min="11784" max="11784" width="8" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="8.69921875" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="8.75" style="1" customWidth="1"/>
     <col min="11786" max="11788" width="8" style="1" customWidth="1"/>
-    <col min="11789" max="11791" width="9.69921875" style="1" customWidth="1"/>
-    <col min="11792" max="11794" width="7.69921875" style="1" customWidth="1"/>
-    <col min="11795" max="11795" width="11.3984375" style="1" customWidth="1"/>
-    <col min="11796" max="11797" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11789" max="11791" width="9.75" style="1" customWidth="1"/>
+    <col min="11792" max="11794" width="7.75" style="1" customWidth="1"/>
+    <col min="11795" max="11795" width="11.375" style="1" customWidth="1"/>
+    <col min="11796" max="11797" width="7.125" style="1" customWidth="1"/>
     <col min="11798" max="11798" width="6" style="1" customWidth="1"/>
-    <col min="11799" max="11799" width="8.09765625" style="1" customWidth="1"/>
+    <col min="11799" max="11799" width="8.125" style="1" customWidth="1"/>
     <col min="11800" max="11800" width="9" style="1" customWidth="1"/>
-    <col min="11801" max="12032" width="9.09765625" style="1"/>
-    <col min="12033" max="12033" width="10.09765625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11801" max="12032" width="9.125" style="1"/>
+    <col min="12033" max="12033" width="10.125" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="1" customWidth="1"/>
     <col min="12035" max="12035" width="7" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="7.3984375" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="7.09765625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="7.375" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="7.125" style="1" customWidth="1"/>
     <col min="12038" max="12038" width="8" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="8.59765625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.625" style="1" customWidth="1"/>
     <col min="12040" max="12040" width="8" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="8.69921875" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="8.75" style="1" customWidth="1"/>
     <col min="12042" max="12044" width="8" style="1" customWidth="1"/>
-    <col min="12045" max="12047" width="9.69921875" style="1" customWidth="1"/>
-    <col min="12048" max="12050" width="7.69921875" style="1" customWidth="1"/>
-    <col min="12051" max="12051" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12052" max="12053" width="7.09765625" style="1" customWidth="1"/>
+    <col min="12045" max="12047" width="9.75" style="1" customWidth="1"/>
+    <col min="12048" max="12050" width="7.75" style="1" customWidth="1"/>
+    <col min="12051" max="12051" width="11.375" style="1" customWidth="1"/>
+    <col min="12052" max="12053" width="7.125" style="1" customWidth="1"/>
     <col min="12054" max="12054" width="6" style="1" customWidth="1"/>
-    <col min="12055" max="12055" width="8.09765625" style="1" customWidth="1"/>
+    <col min="12055" max="12055" width="8.125" style="1" customWidth="1"/>
     <col min="12056" max="12056" width="9" style="1" customWidth="1"/>
-    <col min="12057" max="12288" width="9.09765625" style="1"/>
-    <col min="12289" max="12289" width="10.09765625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="9.69921875" style="1" customWidth="1"/>
+    <col min="12057" max="12288" width="9.125" style="1"/>
+    <col min="12289" max="12289" width="10.125" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="1" customWidth="1"/>
     <col min="12291" max="12291" width="7" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="7.3984375" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="7.09765625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="7.375" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="7.125" style="1" customWidth="1"/>
     <col min="12294" max="12294" width="8" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="8.59765625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.625" style="1" customWidth="1"/>
     <col min="12296" max="12296" width="8" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="8.69921875" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="8.75" style="1" customWidth="1"/>
     <col min="12298" max="12300" width="8" style="1" customWidth="1"/>
-    <col min="12301" max="12303" width="9.69921875" style="1" customWidth="1"/>
-    <col min="12304" max="12306" width="7.69921875" style="1" customWidth="1"/>
-    <col min="12307" max="12307" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12308" max="12309" width="7.09765625" style="1" customWidth="1"/>
+    <col min="12301" max="12303" width="9.75" style="1" customWidth="1"/>
+    <col min="12304" max="12306" width="7.75" style="1" customWidth="1"/>
+    <col min="12307" max="12307" width="11.375" style="1" customWidth="1"/>
+    <col min="12308" max="12309" width="7.125" style="1" customWidth="1"/>
     <col min="12310" max="12310" width="6" style="1" customWidth="1"/>
-    <col min="12311" max="12311" width="8.09765625" style="1" customWidth="1"/>
+    <col min="12311" max="12311" width="8.125" style="1" customWidth="1"/>
     <col min="12312" max="12312" width="9" style="1" customWidth="1"/>
-    <col min="12313" max="12544" width="9.09765625" style="1"/>
-    <col min="12545" max="12545" width="10.09765625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="9.69921875" style="1" customWidth="1"/>
+    <col min="12313" max="12544" width="9.125" style="1"/>
+    <col min="12545" max="12545" width="10.125" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="1" customWidth="1"/>
     <col min="12547" max="12547" width="7" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="7.3984375" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="7.09765625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="7.375" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="7.125" style="1" customWidth="1"/>
     <col min="12550" max="12550" width="8" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="8.59765625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.625" style="1" customWidth="1"/>
     <col min="12552" max="12552" width="8" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="8.69921875" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="8.75" style="1" customWidth="1"/>
     <col min="12554" max="12556" width="8" style="1" customWidth="1"/>
-    <col min="12557" max="12559" width="9.69921875" style="1" customWidth="1"/>
-    <col min="12560" max="12562" width="7.69921875" style="1" customWidth="1"/>
-    <col min="12563" max="12563" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12564" max="12565" width="7.09765625" style="1" customWidth="1"/>
+    <col min="12557" max="12559" width="9.75" style="1" customWidth="1"/>
+    <col min="12560" max="12562" width="7.75" style="1" customWidth="1"/>
+    <col min="12563" max="12563" width="11.375" style="1" customWidth="1"/>
+    <col min="12564" max="12565" width="7.125" style="1" customWidth="1"/>
     <col min="12566" max="12566" width="6" style="1" customWidth="1"/>
-    <col min="12567" max="12567" width="8.09765625" style="1" customWidth="1"/>
+    <col min="12567" max="12567" width="8.125" style="1" customWidth="1"/>
     <col min="12568" max="12568" width="9" style="1" customWidth="1"/>
-    <col min="12569" max="12800" width="9.09765625" style="1"/>
-    <col min="12801" max="12801" width="10.09765625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="9.69921875" style="1" customWidth="1"/>
+    <col min="12569" max="12800" width="9.125" style="1"/>
+    <col min="12801" max="12801" width="10.125" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="1" customWidth="1"/>
     <col min="12803" max="12803" width="7" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="7.3984375" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="7.09765625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="7.375" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="7.125" style="1" customWidth="1"/>
     <col min="12806" max="12806" width="8" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="8.59765625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.625" style="1" customWidth="1"/>
     <col min="12808" max="12808" width="8" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="8.69921875" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="8.75" style="1" customWidth="1"/>
     <col min="12810" max="12812" width="8" style="1" customWidth="1"/>
-    <col min="12813" max="12815" width="9.69921875" style="1" customWidth="1"/>
-    <col min="12816" max="12818" width="7.69921875" style="1" customWidth="1"/>
-    <col min="12819" max="12819" width="11.3984375" style="1" customWidth="1"/>
-    <col min="12820" max="12821" width="7.09765625" style="1" customWidth="1"/>
+    <col min="12813" max="12815" width="9.75" style="1" customWidth="1"/>
+    <col min="12816" max="12818" width="7.75" style="1" customWidth="1"/>
+    <col min="12819" max="12819" width="11.375" style="1" customWidth="1"/>
+    <col min="12820" max="12821" width="7.125" style="1" customWidth="1"/>
     <col min="12822" max="12822" width="6" style="1" customWidth="1"/>
-    <col min="12823" max="12823" width="8.09765625" style="1" customWidth="1"/>
+    <col min="12823" max="12823" width="8.125" style="1" customWidth="1"/>
     <col min="12824" max="12824" width="9" style="1" customWidth="1"/>
-    <col min="12825" max="13056" width="9.09765625" style="1"/>
-    <col min="13057" max="13057" width="10.09765625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="9.69921875" style="1" customWidth="1"/>
+    <col min="12825" max="13056" width="9.125" style="1"/>
+    <col min="13057" max="13057" width="10.125" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="1" customWidth="1"/>
     <col min="13059" max="13059" width="7" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="7.3984375" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="7.375" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="7.125" style="1" customWidth="1"/>
     <col min="13062" max="13062" width="8" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="8.59765625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.625" style="1" customWidth="1"/>
     <col min="13064" max="13064" width="8" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="8.69921875" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="8.75" style="1" customWidth="1"/>
     <col min="13066" max="13068" width="8" style="1" customWidth="1"/>
-    <col min="13069" max="13071" width="9.69921875" style="1" customWidth="1"/>
-    <col min="13072" max="13074" width="7.69921875" style="1" customWidth="1"/>
-    <col min="13075" max="13075" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13076" max="13077" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13069" max="13071" width="9.75" style="1" customWidth="1"/>
+    <col min="13072" max="13074" width="7.75" style="1" customWidth="1"/>
+    <col min="13075" max="13075" width="11.375" style="1" customWidth="1"/>
+    <col min="13076" max="13077" width="7.125" style="1" customWidth="1"/>
     <col min="13078" max="13078" width="6" style="1" customWidth="1"/>
-    <col min="13079" max="13079" width="8.09765625" style="1" customWidth="1"/>
+    <col min="13079" max="13079" width="8.125" style="1" customWidth="1"/>
     <col min="13080" max="13080" width="9" style="1" customWidth="1"/>
-    <col min="13081" max="13312" width="9.09765625" style="1"/>
-    <col min="13313" max="13313" width="10.09765625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13081" max="13312" width="9.125" style="1"/>
+    <col min="13313" max="13313" width="10.125" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="1" customWidth="1"/>
     <col min="13315" max="13315" width="7" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="7.3984375" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="7.375" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="7.125" style="1" customWidth="1"/>
     <col min="13318" max="13318" width="8" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="8.59765625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.625" style="1" customWidth="1"/>
     <col min="13320" max="13320" width="8" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="8.69921875" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="8.75" style="1" customWidth="1"/>
     <col min="13322" max="13324" width="8" style="1" customWidth="1"/>
-    <col min="13325" max="13327" width="9.69921875" style="1" customWidth="1"/>
-    <col min="13328" max="13330" width="7.69921875" style="1" customWidth="1"/>
-    <col min="13331" max="13331" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13332" max="13333" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13325" max="13327" width="9.75" style="1" customWidth="1"/>
+    <col min="13328" max="13330" width="7.75" style="1" customWidth="1"/>
+    <col min="13331" max="13331" width="11.375" style="1" customWidth="1"/>
+    <col min="13332" max="13333" width="7.125" style="1" customWidth="1"/>
     <col min="13334" max="13334" width="6" style="1" customWidth="1"/>
-    <col min="13335" max="13335" width="8.09765625" style="1" customWidth="1"/>
+    <col min="13335" max="13335" width="8.125" style="1" customWidth="1"/>
     <col min="13336" max="13336" width="9" style="1" customWidth="1"/>
-    <col min="13337" max="13568" width="9.09765625" style="1"/>
-    <col min="13569" max="13569" width="10.09765625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13337" max="13568" width="9.125" style="1"/>
+    <col min="13569" max="13569" width="10.125" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="1" customWidth="1"/>
     <col min="13571" max="13571" width="7" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="7.3984375" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="7.375" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="7.125" style="1" customWidth="1"/>
     <col min="13574" max="13574" width="8" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="8.59765625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.625" style="1" customWidth="1"/>
     <col min="13576" max="13576" width="8" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="8.69921875" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="8.75" style="1" customWidth="1"/>
     <col min="13578" max="13580" width="8" style="1" customWidth="1"/>
-    <col min="13581" max="13583" width="9.69921875" style="1" customWidth="1"/>
-    <col min="13584" max="13586" width="7.69921875" style="1" customWidth="1"/>
-    <col min="13587" max="13587" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13588" max="13589" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13581" max="13583" width="9.75" style="1" customWidth="1"/>
+    <col min="13584" max="13586" width="7.75" style="1" customWidth="1"/>
+    <col min="13587" max="13587" width="11.375" style="1" customWidth="1"/>
+    <col min="13588" max="13589" width="7.125" style="1" customWidth="1"/>
     <col min="13590" max="13590" width="6" style="1" customWidth="1"/>
-    <col min="13591" max="13591" width="8.09765625" style="1" customWidth="1"/>
+    <col min="13591" max="13591" width="8.125" style="1" customWidth="1"/>
     <col min="13592" max="13592" width="9" style="1" customWidth="1"/>
-    <col min="13593" max="13824" width="9.09765625" style="1"/>
-    <col min="13825" max="13825" width="10.09765625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13593" max="13824" width="9.125" style="1"/>
+    <col min="13825" max="13825" width="10.125" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="1" customWidth="1"/>
     <col min="13827" max="13827" width="7" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="7.3984375" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="7.375" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="7.125" style="1" customWidth="1"/>
     <col min="13830" max="13830" width="8" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="8.59765625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.625" style="1" customWidth="1"/>
     <col min="13832" max="13832" width="8" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="8.69921875" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="8.75" style="1" customWidth="1"/>
     <col min="13834" max="13836" width="8" style="1" customWidth="1"/>
-    <col min="13837" max="13839" width="9.69921875" style="1" customWidth="1"/>
-    <col min="13840" max="13842" width="7.69921875" style="1" customWidth="1"/>
-    <col min="13843" max="13843" width="11.3984375" style="1" customWidth="1"/>
-    <col min="13844" max="13845" width="7.09765625" style="1" customWidth="1"/>
+    <col min="13837" max="13839" width="9.75" style="1" customWidth="1"/>
+    <col min="13840" max="13842" width="7.75" style="1" customWidth="1"/>
+    <col min="13843" max="13843" width="11.375" style="1" customWidth="1"/>
+    <col min="13844" max="13845" width="7.125" style="1" customWidth="1"/>
     <col min="13846" max="13846" width="6" style="1" customWidth="1"/>
-    <col min="13847" max="13847" width="8.09765625" style="1" customWidth="1"/>
+    <col min="13847" max="13847" width="8.125" style="1" customWidth="1"/>
     <col min="13848" max="13848" width="9" style="1" customWidth="1"/>
-    <col min="13849" max="14080" width="9.09765625" style="1"/>
-    <col min="14081" max="14081" width="10.09765625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13849" max="14080" width="9.125" style="1"/>
+    <col min="14081" max="14081" width="10.125" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="1" customWidth="1"/>
     <col min="14083" max="14083" width="7" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="7.3984375" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="7.09765625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="7.375" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="7.125" style="1" customWidth="1"/>
     <col min="14086" max="14086" width="8" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="8.59765625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.625" style="1" customWidth="1"/>
     <col min="14088" max="14088" width="8" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="8.69921875" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="8.75" style="1" customWidth="1"/>
     <col min="14090" max="14092" width="8" style="1" customWidth="1"/>
-    <col min="14093" max="14095" width="9.69921875" style="1" customWidth="1"/>
-    <col min="14096" max="14098" width="7.69921875" style="1" customWidth="1"/>
-    <col min="14099" max="14099" width="11.3984375" style="1" customWidth="1"/>
-    <col min="14100" max="14101" width="7.09765625" style="1" customWidth="1"/>
+    <col min="14093" max="14095" width="9.75" style="1" customWidth="1"/>
+    <col min="14096" max="14098" width="7.75" style="1" customWidth="1"/>
+    <col min="14099" max="14099" width="11.375" style="1" customWidth="1"/>
+    <col min="14100" max="14101" width="7.125" style="1" customWidth="1"/>
     <col min="14102" max="14102" width="6" style="1" customWidth="1"/>
-    <col min="14103" max="14103" width="8.09765625" style="1" customWidth="1"/>
+    <col min="14103" max="14103" width="8.125" style="1" customWidth="1"/>
     <col min="14104" max="14104" width="9" style="1" customWidth="1"/>
-    <col min="14105" max="14336" width="9.09765625" style="1"/>
-    <col min="14337" max="14337" width="10.09765625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14105" max="14336" width="9.125" style="1"/>
+    <col min="14337" max="14337" width="10.125" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="1" customWidth="1"/>
     <col min="14339" max="14339" width="7" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="7.3984375" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="7.09765625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="7.375" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="7.125" style="1" customWidth="1"/>
     <col min="14342" max="14342" width="8" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="8.59765625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.625" style="1" customWidth="1"/>
     <col min="14344" max="14344" width="8" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="8.69921875" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="8.75" style="1" customWidth="1"/>
     <col min="14346" max="14348" width="8" style="1" customWidth="1"/>
-    <col min="14349" max="14351" width="9.69921875" style="1" customWidth="1"/>
-    <col min="14352" max="14354" width="7.69921875" style="1" customWidth="1"/>
-    <col min="14355" max="14355" width="11.3984375" style="1" customWidth="1"/>
-    <col min="14356" max="14357" width="7.09765625" style="1" customWidth="1"/>
+    <col min="14349" max="14351" width="9.75" style="1" customWidth="1"/>
+    <col min="14352" max="14354" width="7.75" style="1" customWidth="1"/>
+    <col min="14355" max="14355" width="11.375" style="1" customWidth="1"/>
+    <col min="14356" max="14357" width="7.125" style="1" customWidth="1"/>
     <col min="14358" max="14358" width="6" style="1" customWidth="1"/>
-    <col min="14359" max="14359" width="8.09765625" style="1" customWidth="1"/>
+    <col min="14359" max="14359" width="8.125" style="1" customWidth="1"/>
     <col min="14360" max="14360" width="9" style="1" customWidth="1"/>
-    <col min="14361" max="14592" width="9.09765625" style="1"/>
-    <col min="14593" max="14593" width="10.09765625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14361" max="14592" width="9.125" style="1"/>
+    <col min="14593" max="14593" width="10.125" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="1" customWidth="1"/>
     <col min="14595" max="14595" width="7" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="7.3984375" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="7.09765625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="7.375" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="7.125" style="1" customWidth="1"/>
     <col min="14598" max="14598" width="8" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="8.59765625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.625" style="1" customWidth="1"/>
     <col min="14600" max="14600" width="8" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="8.69921875" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="8.75" style="1" customWidth="1"/>
     <col min="14602" max="14604" width="8" style="1" customWidth="1"/>
-    <col min="14605" max="14607" width="9.69921875" style="1" customWidth="1"/>
-    <col min="14608" max="14610" width="7.69921875" style="1" customWidth="1"/>
-    <col min="14611" max="14611" width="11.3984375" style="1" customWidth="1"/>
-    <col min="14612" max="14613" width="7.09765625" style="1" customWidth="1"/>
+    <col min="14605" max="14607" width="9.75" style="1" customWidth="1"/>
+    <col min="14608" max="14610" width="7.75" style="1" customWidth="1"/>
+    <col min="14611" max="14611" width="11.375" style="1" customWidth="1"/>
+    <col min="14612" max="14613" width="7.125" style="1" customWidth="1"/>
     <col min="14614" max="14614" width="6" style="1" customWidth="1"/>
-    <col min="14615" max="14615" width="8.09765625" style="1" customWidth="1"/>
+    <col min="14615" max="14615" width="8.125" style="1" customWidth="1"/>
     <col min="14616" max="14616" width="9" style="1" customWidth="1"/>
-    <col min="14617" max="14848" width="9.09765625" style="1"/>
-    <col min="14849" max="14849" width="10.09765625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14617" max="14848" width="9.125" style="1"/>
+    <col min="14849" max="14849" width="10.125" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="1" customWidth="1"/>
     <col min="14851" max="14851" width="7" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="7.3984375" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="7.09765625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="7.375" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="7.125" style="1" customWidth="1"/>
     <col min="14854" max="14854" width="8" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="8.59765625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.625" style="1" customWidth="1"/>
     <col min="14856" max="14856" width="8" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="8.69921875" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="8.75" style="1" customWidth="1"/>
     <col min="14858" max="14860" width="8" style="1" customWidth="1"/>
-    <col min="14861" max="14863" width="9.69921875" style="1" customWidth="1"/>
-    <col min="14864" max="14866" width="7.69921875" style="1" customWidth="1"/>
-    <col min="14867" max="14867" width="11.3984375" style="1" customWidth="1"/>
-    <col min="14868" max="14869" width="7.09765625" style="1" customWidth="1"/>
+    <col min="14861" max="14863" width="9.75" style="1" customWidth="1"/>
+    <col min="14864" max="14866" width="7.75" style="1" customWidth="1"/>
+    <col min="14867" max="14867" width="11.375" style="1" customWidth="1"/>
+    <col min="14868" max="14869" width="7.125" style="1" customWidth="1"/>
     <col min="14870" max="14870" width="6" style="1" customWidth="1"/>
-    <col min="14871" max="14871" width="8.09765625" style="1" customWidth="1"/>
+    <col min="14871" max="14871" width="8.125" style="1" customWidth="1"/>
     <col min="14872" max="14872" width="9" style="1" customWidth="1"/>
-    <col min="14873" max="15104" width="9.09765625" style="1"/>
-    <col min="15105" max="15105" width="10.09765625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14873" max="15104" width="9.125" style="1"/>
+    <col min="15105" max="15105" width="10.125" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="1" customWidth="1"/>
     <col min="15107" max="15107" width="7" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="7.3984375" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="7.09765625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="7.375" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="7.125" style="1" customWidth="1"/>
     <col min="15110" max="15110" width="8" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="8.59765625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.625" style="1" customWidth="1"/>
     <col min="15112" max="15112" width="8" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="8.69921875" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="8.75" style="1" customWidth="1"/>
     <col min="15114" max="15116" width="8" style="1" customWidth="1"/>
-    <col min="15117" max="15119" width="9.69921875" style="1" customWidth="1"/>
-    <col min="15120" max="15122" width="7.69921875" style="1" customWidth="1"/>
-    <col min="15123" max="15123" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15124" max="15125" width="7.09765625" style="1" customWidth="1"/>
+    <col min="15117" max="15119" width="9.75" style="1" customWidth="1"/>
+    <col min="15120" max="15122" width="7.75" style="1" customWidth="1"/>
+    <col min="15123" max="15123" width="11.375" style="1" customWidth="1"/>
+    <col min="15124" max="15125" width="7.125" style="1" customWidth="1"/>
     <col min="15126" max="15126" width="6" style="1" customWidth="1"/>
-    <col min="15127" max="15127" width="8.09765625" style="1" customWidth="1"/>
+    <col min="15127" max="15127" width="8.125" style="1" customWidth="1"/>
     <col min="15128" max="15128" width="9" style="1" customWidth="1"/>
-    <col min="15129" max="15360" width="9.09765625" style="1"/>
-    <col min="15361" max="15361" width="10.09765625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="9.69921875" style="1" customWidth="1"/>
+    <col min="15129" max="15360" width="9.125" style="1"/>
+    <col min="15361" max="15361" width="10.125" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="1" customWidth="1"/>
     <col min="15363" max="15363" width="7" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="7.3984375" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="7.09765625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="7.375" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="7.125" style="1" customWidth="1"/>
     <col min="15366" max="15366" width="8" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="8.59765625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.625" style="1" customWidth="1"/>
     <col min="15368" max="15368" width="8" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="8.69921875" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="8.75" style="1" customWidth="1"/>
     <col min="15370" max="15372" width="8" style="1" customWidth="1"/>
-    <col min="15373" max="15375" width="9.69921875" style="1" customWidth="1"/>
-    <col min="15376" max="15378" width="7.69921875" style="1" customWidth="1"/>
-    <col min="15379" max="15379" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15380" max="15381" width="7.09765625" style="1" customWidth="1"/>
+    <col min="15373" max="15375" width="9.75" style="1" customWidth="1"/>
+    <col min="15376" max="15378" width="7.75" style="1" customWidth="1"/>
+    <col min="15379" max="15379" width="11.375" style="1" customWidth="1"/>
+    <col min="15380" max="15381" width="7.125" style="1" customWidth="1"/>
     <col min="15382" max="15382" width="6" style="1" customWidth="1"/>
-    <col min="15383" max="15383" width="8.09765625" style="1" customWidth="1"/>
+    <col min="15383" max="15383" width="8.125" style="1" customWidth="1"/>
     <col min="15384" max="15384" width="9" style="1" customWidth="1"/>
-    <col min="15385" max="15616" width="9.09765625" style="1"/>
-    <col min="15617" max="15617" width="10.09765625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="9.69921875" style="1" customWidth="1"/>
+    <col min="15385" max="15616" width="9.125" style="1"/>
+    <col min="15617" max="15617" width="10.125" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="1" customWidth="1"/>
     <col min="15619" max="15619" width="7" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="7.3984375" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="7.09765625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="7.375" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="7.125" style="1" customWidth="1"/>
     <col min="15622" max="15622" width="8" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="8.59765625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.625" style="1" customWidth="1"/>
     <col min="15624" max="15624" width="8" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="8.69921875" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="8.75" style="1" customWidth="1"/>
     <col min="15626" max="15628" width="8" style="1" customWidth="1"/>
-    <col min="15629" max="15631" width="9.69921875" style="1" customWidth="1"/>
-    <col min="15632" max="15634" width="7.69921875" style="1" customWidth="1"/>
-    <col min="15635" max="15635" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15636" max="15637" width="7.09765625" style="1" customWidth="1"/>
+    <col min="15629" max="15631" width="9.75" style="1" customWidth="1"/>
+    <col min="15632" max="15634" width="7.75" style="1" customWidth="1"/>
+    <col min="15635" max="15635" width="11.375" style="1" customWidth="1"/>
+    <col min="15636" max="15637" width="7.125" style="1" customWidth="1"/>
     <col min="15638" max="15638" width="6" style="1" customWidth="1"/>
-    <col min="15639" max="15639" width="8.09765625" style="1" customWidth="1"/>
+    <col min="15639" max="15639" width="8.125" style="1" customWidth="1"/>
     <col min="15640" max="15640" width="9" style="1" customWidth="1"/>
-    <col min="15641" max="15872" width="9.09765625" style="1"/>
-    <col min="15873" max="15873" width="10.09765625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="9.69921875" style="1" customWidth="1"/>
+    <col min="15641" max="15872" width="9.125" style="1"/>
+    <col min="15873" max="15873" width="10.125" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="1" customWidth="1"/>
     <col min="15875" max="15875" width="7" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="7.3984375" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="7.09765625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="7.375" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="7.125" style="1" customWidth="1"/>
     <col min="15878" max="15878" width="8" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="8.59765625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.625" style="1" customWidth="1"/>
     <col min="15880" max="15880" width="8" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="8.69921875" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="8.75" style="1" customWidth="1"/>
     <col min="15882" max="15884" width="8" style="1" customWidth="1"/>
-    <col min="15885" max="15887" width="9.69921875" style="1" customWidth="1"/>
-    <col min="15888" max="15890" width="7.69921875" style="1" customWidth="1"/>
-    <col min="15891" max="15891" width="11.3984375" style="1" customWidth="1"/>
-    <col min="15892" max="15893" width="7.09765625" style="1" customWidth="1"/>
+    <col min="15885" max="15887" width="9.75" style="1" customWidth="1"/>
+    <col min="15888" max="15890" width="7.75" style="1" customWidth="1"/>
+    <col min="15891" max="15891" width="11.375" style="1" customWidth="1"/>
+    <col min="15892" max="15893" width="7.125" style="1" customWidth="1"/>
     <col min="15894" max="15894" width="6" style="1" customWidth="1"/>
-    <col min="15895" max="15895" width="8.09765625" style="1" customWidth="1"/>
+    <col min="15895" max="15895" width="8.125" style="1" customWidth="1"/>
     <col min="15896" max="15896" width="9" style="1" customWidth="1"/>
-    <col min="15897" max="16128" width="9.09765625" style="1"/>
-    <col min="16129" max="16129" width="10.09765625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="9.69921875" style="1" customWidth="1"/>
+    <col min="15897" max="16128" width="9.125" style="1"/>
+    <col min="16129" max="16129" width="10.125" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="1" customWidth="1"/>
     <col min="16131" max="16131" width="7" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="7.3984375" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="7.09765625" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="7.375" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="7.125" style="1" customWidth="1"/>
     <col min="16134" max="16134" width="8" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="8.59765625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.625" style="1" customWidth="1"/>
     <col min="16136" max="16136" width="8" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="8.69921875" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="8.75" style="1" customWidth="1"/>
     <col min="16138" max="16140" width="8" style="1" customWidth="1"/>
-    <col min="16141" max="16143" width="9.69921875" style="1" customWidth="1"/>
-    <col min="16144" max="16146" width="7.69921875" style="1" customWidth="1"/>
-    <col min="16147" max="16147" width="11.3984375" style="1" customWidth="1"/>
-    <col min="16148" max="16149" width="7.09765625" style="1" customWidth="1"/>
+    <col min="16141" max="16143" width="9.75" style="1" customWidth="1"/>
+    <col min="16144" max="16146" width="7.75" style="1" customWidth="1"/>
+    <col min="16147" max="16147" width="11.375" style="1" customWidth="1"/>
+    <col min="16148" max="16149" width="7.125" style="1" customWidth="1"/>
     <col min="16150" max="16150" width="6" style="1" customWidth="1"/>
-    <col min="16151" max="16151" width="8.09765625" style="1" customWidth="1"/>
+    <col min="16151" max="16151" width="8.125" style="1" customWidth="1"/>
     <col min="16152" max="16152" width="9" style="1" customWidth="1"/>
-    <col min="16153" max="16384" width="9.09765625" style="1"/>
+    <col min="16153" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
-    <row r="2" spans="1:47" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:47" ht="6" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:47" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4" t="s">
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="4" t="s">
+      <c r="T2" s="163"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="6"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="164"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="165"/>
+      <c r="AN2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="165"/>
+      <c r="AT2" s="165"/>
+      <c r="AU2" s="165"/>
     </row>
-    <row r="3" spans="1:47" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="14"/>
+    <row r="3" spans="1:47" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:47" s="23" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:47" s="7" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="167"/>
+      <c r="C4" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="169"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="18" t="s">
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="18" t="s">
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="19" t="s">
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="19" t="s">
+      <c r="S4" s="170"/>
+      <c r="T4" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="22"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="147"/>
+      <c r="W4" s="147"/>
+      <c r="X4" s="148"/>
     </row>
-    <row r="5" spans="1:47" s="27" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="28" t="s">
+    <row r="5" spans="1:47" s="11" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="28" t="s">
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="31" t="s">
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="28" t="s">
+      <c r="U5" s="153"/>
+      <c r="V5" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="35"/>
-      <c r="X5" s="36"/>
+      <c r="W5" s="154"/>
+      <c r="X5" s="155"/>
     </row>
-    <row r="6" spans="1:47" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="I6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39" t="s">
+    <row r="6" spans="1:47" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="40"/>
-      <c r="V6" s="41" t="s">
+      <c r="U6" s="140"/>
+      <c r="V6" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="42"/>
-      <c r="X6" s="43"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="157"/>
     </row>
-    <row r="7" spans="1:47" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.75">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="45" t="s">
+    <row r="7" spans="1:47" s="11" customFormat="1" ht="19.8">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="45" t="s">
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="48"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="49" t="s">
+      <c r="R7" s="20"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="50"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="53"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="133"/>
     </row>
-    <row r="8" spans="1:47" s="27" customFormat="1" ht="20" x14ac:dyDescent="0.75">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:47" s="11" customFormat="1" ht="19.8">
+      <c r="A8" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="51" t="s">
+      <c r="D8" s="132"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="51" t="s">
+      <c r="G8" s="138"/>
+      <c r="H8" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="52" t="s">
+      <c r="I8" s="138"/>
+      <c r="J8" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="52" t="s">
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56" t="s">
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="57"/>
-      <c r="T8" s="49" t="s">
+      <c r="S8" s="145"/>
+      <c r="T8" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="50"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="53"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="133"/>
     </row>
-    <row r="9" spans="1:47" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:47" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="51" t="s">
+      <c r="C9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="138"/>
+      <c r="N9" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="55"/>
-      <c r="P9" s="52" t="s">
+      <c r="O9" s="138"/>
+      <c r="P9" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="39" t="s">
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="40"/>
-      <c r="T9" s="49" t="s">
+      <c r="S9" s="140"/>
+      <c r="T9" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="50"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="53"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="133"/>
     </row>
-    <row r="10" spans="1:47" s="27" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="73" t="s">
+    <row r="10" spans="1:47" s="11" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="64"/>
-      <c r="T10" s="74" t="s">
+      <c r="S10" s="24"/>
+      <c r="T10" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="78"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="126"/>
     </row>
-    <row r="11" spans="1:47" s="27" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
-    <row r="12" spans="1:47" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="79" t="s">
+    <row r="11" spans="1:47" s="11" customFormat="1" ht="9.75" customHeight="1" thickBot="1"/>
+    <row r="12" spans="1:47" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="81" t="s">
+      <c r="D12" s="127"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84" t="s">
+      <c r="G12" s="107"/>
+      <c r="H12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="84" t="s">
+      <c r="K12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="81" t="s">
+      <c r="M12" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="81" t="s">
+      <c r="N12" s="127"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="85" t="s">
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="86"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="88" t="s">
+      <c r="U12" s="129"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="X12" s="89" t="s">
+      <c r="X12" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:47" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91" t="s">
+    <row r="13" spans="1:47" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="93" t="s">
+      <c r="I13" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="93" t="s">
+      <c r="J13" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="93" t="s">
+      <c r="L13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="93" t="s">
+      <c r="M13" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="93" t="s">
+      <c r="N13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="93" t="s">
+      <c r="O13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="92" t="s">
+      <c r="P13" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="92" t="s">
+      <c r="Q13" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="92" t="s">
+      <c r="R13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="93" t="s">
+      <c r="S13" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="93" t="s">
+      <c r="T13" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="U13" s="93" t="s">
+      <c r="U13" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="V13" s="93" t="s">
+      <c r="V13" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="W13" s="93" t="s">
+      <c r="W13" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="X13" s="94" t="s">
+      <c r="X13" s="40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:47" s="27" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:47" s="11" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A14" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="99" t="s">
+      <c r="H14" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="99" t="s">
+      <c r="I14" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="99" t="s">
+      <c r="J14" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="99" t="s">
+      <c r="K14" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="99" t="s">
+      <c r="L14" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="99" t="s">
+      <c r="M14" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="99" t="s">
+      <c r="N14" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="100" t="s">
+      <c r="O14" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="99" t="s">
+      <c r="P14" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="99" t="s">
+      <c r="Q14" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="R14" s="98" t="s">
+      <c r="R14" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="S14" s="98" t="s">
+      <c r="S14" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="T14" s="99" t="s">
+      <c r="T14" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="U14" s="99" t="s">
+      <c r="U14" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="V14" s="99" t="s">
+      <c r="V14" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="101"/>
-      <c r="X14" s="102"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="48"/>
     </row>
-    <row r="15" spans="1:47" s="27" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="103" t="s">
+    <row r="15" spans="1:47" s="11" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A15" s="171"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="107"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="174"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="178"/>
     </row>
-    <row r="16" spans="1:47" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="108" t="s">
+    <row r="16" spans="1:47" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="110"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="113"/>
+    <row r="17" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="54"/>
     </row>
-    <row r="18" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="112"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="113"/>
+    <row r="18" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="54"/>
     </row>
-    <row r="19" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="113"/>
+    <row r="19" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="54"/>
     </row>
-    <row r="20" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="113"/>
+    <row r="20" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="54"/>
     </row>
-    <row r="21" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="113"/>
+    <row r="21" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="54"/>
     </row>
-    <row r="22" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="111"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
-      <c r="V22" s="112"/>
-      <c r="W22" s="112"/>
-      <c r="X22" s="113"/>
+    <row r="22" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="54"/>
     </row>
-    <row r="23" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="111"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="112"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="113"/>
+    <row r="23" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="54"/>
     </row>
-    <row r="24" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="111"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="113"/>
+    <row r="24" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="54"/>
     </row>
-    <row r="25" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A25" s="111"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="113"/>
+    <row r="25" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="54"/>
     </row>
-    <row r="26" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A26" s="111"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="113"/>
+    <row r="26" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="54"/>
     </row>
-    <row r="27" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="113"/>
+    <row r="27" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="54"/>
     </row>
-    <row r="28" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A28" s="111"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="113"/>
+    <row r="28" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="54"/>
     </row>
-    <row r="29" spans="1:24" s="27" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A29" s="63"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="102"/>
+    <row r="29" spans="1:24" s="11" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A29" s="23"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="48"/>
     </row>
-    <row r="30" spans="1:24" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
-    <row r="31" spans="1:24" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="81" t="s">
+    <row r="30" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1"/>
+    <row r="31" spans="1:24" s="11" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="81" t="s">
+      <c r="D31" s="107"/>
+      <c r="E31" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="116" t="s">
+      <c r="F31" s="107"/>
+      <c r="G31" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="117" t="s">
+      <c r="H31" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="118"/>
-      <c r="K31" s="119" t="s">
+      <c r="J31" s="59"/>
+      <c r="K31" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="L31" s="120" t="s">
+      <c r="L31" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="M31" s="121"/>
-      <c r="N31" s="122" t="s">
+      <c r="M31" s="62"/>
+      <c r="N31" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="O31" s="123" t="s">
+      <c r="O31" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="124"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="125"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="110"/>
     </row>
-    <row r="32" spans="1:24" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A32" s="126" t="s">
+    <row r="32" spans="1:24" s="11" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A32" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="128">
+      <c r="B32" s="112"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="64">
         <v>1</v>
       </c>
-      <c r="I32" s="129" t="s">
+      <c r="I32" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131" t="s">
+      <c r="J32" s="66"/>
+      <c r="K32" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="L32" s="132" t="s">
+      <c r="L32" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="M32" s="46"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="134" t="s">
+      <c r="M32" s="18"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="137" t="s">
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="138"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="120"/>
+      <c r="X32" s="121"/>
     </row>
-    <row r="33" spans="1:24" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A33" s="139"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142" t="s">
+    <row r="33" spans="1:24" s="11" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="I33" s="143" t="s">
+      <c r="I33" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131" t="s">
+      <c r="J33" s="66"/>
+      <c r="K33" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="L33" s="92" t="s">
+      <c r="L33" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="N33" s="144" t="s">
+      <c r="N33" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="O33" s="145">
+      <c r="O33" s="73">
         <v>1</v>
       </c>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146">
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74">
         <v>4</v>
       </c>
-      <c r="R33" s="147"/>
-      <c r="S33" s="148">
+      <c r="R33" s="75"/>
+      <c r="S33" s="76">
         <v>1</v>
       </c>
-      <c r="T33" s="149"/>
-      <c r="U33" s="150"/>
-      <c r="V33" s="137">
+      <c r="T33" s="77"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="99">
         <v>4</v>
       </c>
-      <c r="W33" s="136"/>
-      <c r="X33" s="151"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="79"/>
     </row>
-    <row r="34" spans="1:24" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A34" s="152" t="s">
+    <row r="34" spans="1:24" s="11" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A34" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="157">
+      <c r="B34" s="98"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="83">
         <v>2</v>
       </c>
-      <c r="I34" s="143" t="s">
+      <c r="I34" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131" t="s">
+      <c r="J34" s="66"/>
+      <c r="K34" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="L34" s="132" t="s">
+      <c r="L34" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="47"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="145">
+      <c r="M34" s="19"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="73">
         <v>2</v>
       </c>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="146">
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74">
         <v>5</v>
       </c>
-      <c r="R34" s="147"/>
-      <c r="S34" s="146">
+      <c r="R34" s="75"/>
+      <c r="S34" s="74">
         <v>2</v>
       </c>
-      <c r="T34" s="158"/>
-      <c r="U34" s="159"/>
-      <c r="V34" s="137">
+      <c r="T34" s="84"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="99">
         <v>5</v>
       </c>
-      <c r="W34" s="136"/>
-      <c r="X34" s="151"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="79"/>
     </row>
-    <row r="35" spans="1:24" s="27" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="A35" s="160" t="s">
+    <row r="35" spans="1:24" s="11" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A35" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="161"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="102"/>
-      <c r="O35" s="95">
+      <c r="B35" s="102"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="41">
         <v>3</v>
       </c>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="164">
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88">
         <v>6</v>
       </c>
-      <c r="R35" s="165"/>
-      <c r="S35" s="164">
+      <c r="R35" s="89"/>
+      <c r="S35" s="88">
         <v>3</v>
       </c>
-      <c r="T35" s="166"/>
-      <c r="U35" s="167"/>
-      <c r="V35" s="168">
+      <c r="T35" s="90"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="103">
         <v>6</v>
       </c>
-      <c r="W35" s="169"/>
-      <c r="X35" s="170"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="92"/>
     </row>
-    <row r="36" spans="1:24" s="27" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="171" t="s">
+    <row r="36" spans="1:24" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A36" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="172"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="173"/>
-      <c r="T36" s="174" t="s">
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="95"/>
+      <c r="T36" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="U36" s="174"/>
-      <c r="V36" s="174"/>
-      <c r="W36" s="174"/>
-      <c r="X36" s="175" t="s">
+      <c r="U36" s="105"/>
+      <c r="V36" s="105"/>
+      <c r="W36" s="105"/>
+      <c r="X36" s="96" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="27" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.75"/>
-    <row r="38" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="39" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="40" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="41" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="42" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="43" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="44" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="45" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="46" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="47" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
-    <row r="48" spans="1:24" s="27" customFormat="1" ht="17.5" x14ac:dyDescent="0.75"/>
+    <row r="37" spans="1:24" s="11" customFormat="1" ht="21.75" customHeight="1"/>
+    <row r="38" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="39" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="40" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="41" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="42" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="43" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="44" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="45" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="46" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="47" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
+    <row r="48" spans="1:24" s="11" customFormat="1" ht="17.399999999999999"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="Z2:AU2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="A2:R3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:V12"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="O31:X31"/>
@@ -4726,50 +4817,11 @@
     <mergeCell ref="O32:R32"/>
     <mergeCell ref="S32:X32"/>
     <mergeCell ref="V33:W33"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="A2:R3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Z2:AU2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="T36:W36"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.35433070866141736" right="0" top="0" bottom="0" header="0" footer="0"/>
